--- a/excel/free_agents.xlsx
+++ b/excel/free_agents.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2360" uniqueCount="511">
   <si>
     <t>PLAYERS</t>
   </si>
@@ -949,6 +949,609 @@
   </si>
   <si>
     <t>Rodions Kurucs</t>
+  </si>
+  <si>
+    <t>Khem Birch</t>
+  </si>
+  <si>
+    <t>Paul Zipser</t>
+  </si>
+  <si>
+    <t>Briante Weber</t>
+  </si>
+  <si>
+    <t>Brice Johnson</t>
+  </si>
+  <si>
+    <t>Marshall Plumlee</t>
+  </si>
+  <si>
+    <t>Kendrick Perkins</t>
+  </si>
+  <si>
+    <t>Furkan Korkmaz</t>
+  </si>
+  <si>
+    <t>Juan Vaulet</t>
+  </si>
+  <si>
+    <t>Luis Scola</t>
+  </si>
+  <si>
+    <t>Sasha Vujacic</t>
+  </si>
+  <si>
+    <t>Anfernee Simons</t>
+  </si>
+  <si>
+    <t>Dante Cunningham</t>
+  </si>
+  <si>
+    <t>Darius Miller</t>
+  </si>
+  <si>
+    <t>Jevon Carter</t>
+  </si>
+  <si>
+    <t>Hamidou Diallo</t>
+  </si>
+  <si>
+    <t>Patrick McCaw</t>
+  </si>
+  <si>
+    <t>Erik McCree</t>
+  </si>
+  <si>
+    <t>Alex Caruso</t>
+  </si>
+  <si>
+    <t>Timothe Luwawu-Cabarrot</t>
+  </si>
+  <si>
+    <t>Alec Burks</t>
+  </si>
+  <si>
+    <t>Aaron Brooks</t>
+  </si>
+  <si>
+    <t>Quincy Pondexter</t>
+  </si>
+  <si>
+    <t>Kostas Papanikolaou</t>
+  </si>
+  <si>
+    <t>Charlie Villanueva</t>
+  </si>
+  <si>
+    <t>John Lucas III</t>
+  </si>
+  <si>
+    <t>Jordan Farmar</t>
+  </si>
+  <si>
+    <t>Isaiah Hartenstein</t>
+  </si>
+  <si>
+    <t>Nikola Pekovic</t>
+  </si>
+  <si>
+    <t>D.J. Wilson</t>
+  </si>
+  <si>
+    <t>Channing Frye</t>
+  </si>
+  <si>
+    <t>Devonte' Graham</t>
+  </si>
+  <si>
+    <t>Jameer Nelson</t>
+  </si>
+  <si>
+    <t>Bruce Brown</t>
+  </si>
+  <si>
+    <t>Shane Larkin</t>
+  </si>
+  <si>
+    <t>Wesley Iwundu</t>
+  </si>
+  <si>
+    <t>Kobi Simmons</t>
+  </si>
+  <si>
+    <t>Edmond Sumner</t>
+  </si>
+  <si>
+    <t>T.J. Leaf</t>
+  </si>
+  <si>
+    <t>Jason Smith</t>
+  </si>
+  <si>
+    <t>Henry Ellenson</t>
+  </si>
+  <si>
+    <t>Brandon Jennings</t>
+  </si>
+  <si>
+    <t>Udonis Haslem</t>
+  </si>
+  <si>
+    <t>Mindaugas Kuzminskas</t>
+  </si>
+  <si>
+    <t>Monta Ellis</t>
+  </si>
+  <si>
+    <t>Sir'Dominic Pointer</t>
+  </si>
+  <si>
+    <t>Aaron White</t>
+  </si>
+  <si>
+    <t>Hollis Thompson</t>
+  </si>
+  <si>
+    <t>Jordan McRae</t>
+  </si>
+  <si>
+    <t>Shayne Whittington</t>
+  </si>
+  <si>
+    <t>Jarrod Uthoff</t>
+  </si>
+  <si>
+    <t>Andrew Harrison</t>
+  </si>
+  <si>
+    <t>Troy Daniels</t>
+  </si>
+  <si>
+    <t>Omri Casspi</t>
+  </si>
+  <si>
+    <t>Tony Carr</t>
+  </si>
+  <si>
+    <t>Vincent Edwards</t>
+  </si>
+  <si>
+    <t>George King</t>
+  </si>
+  <si>
+    <t>Joe Johnson</t>
+  </si>
+  <si>
+    <t>Andrew Bogut</t>
+  </si>
+  <si>
+    <t>Jamil Wilson</t>
+  </si>
+  <si>
+    <t>Dorian Finney-Smith</t>
+  </si>
+  <si>
+    <t>Brandon Paul</t>
+  </si>
+  <si>
+    <t>Isaiah Whitehead</t>
+  </si>
+  <si>
+    <t>Travis Wear</t>
+  </si>
+  <si>
+    <t>Abdel Nader</t>
+  </si>
+  <si>
+    <t>Tony Allen</t>
+  </si>
+  <si>
+    <t>Georgios Papagiannis</t>
+  </si>
+  <si>
+    <t>Jake Layman</t>
+  </si>
+  <si>
+    <t>Nate Robinson</t>
+  </si>
+  <si>
+    <t>Caron Butler</t>
+  </si>
+  <si>
+    <t>Matt Barnes</t>
+  </si>
+  <si>
+    <t>P.J. Hairston</t>
+  </si>
+  <si>
+    <t>Andrew Goudelock</t>
+  </si>
+  <si>
+    <t>Frank Jackson</t>
+  </si>
+  <si>
+    <t>David Wear</t>
+  </si>
+  <si>
+    <t>Robert Sacre</t>
+  </si>
+  <si>
+    <t>Roy Hibbert</t>
+  </si>
+  <si>
+    <t>Brandon Rush</t>
+  </si>
+  <si>
+    <t>Ian Mahinmi</t>
+  </si>
+  <si>
+    <t>Melvin Frazier Jr.</t>
+  </si>
+  <si>
+    <t>Jodie Meeks</t>
+  </si>
+  <si>
+    <t>SSPD</t>
+  </si>
+  <si>
+    <t>Lucas Nogueira</t>
+  </si>
+  <si>
+    <t>Alize Johnson</t>
+  </si>
+  <si>
+    <t>Arnoldas Kulboka</t>
+  </si>
+  <si>
+    <t>Jerryd Bayless</t>
+  </si>
+  <si>
+    <t>Sean Kilpatrick</t>
+  </si>
+  <si>
+    <t>Alan Williams</t>
+  </si>
+  <si>
+    <t>Tyler Dorsey</t>
+  </si>
+  <si>
+    <t>Willie Reed</t>
+  </si>
+  <si>
+    <t>Justin Anderson</t>
+  </si>
+  <si>
+    <t>Dwight Buycks</t>
+  </si>
+  <si>
+    <t>Arron Afflalo</t>
+  </si>
+  <si>
+    <t>Dwayne Bacon</t>
+  </si>
+  <si>
+    <t>Johnny O'Bryant III</t>
+  </si>
+  <si>
+    <t>Ramon Sessions</t>
+  </si>
+  <si>
+    <t>Jordan Mickey</t>
+  </si>
+  <si>
+    <t>Josh Magette</t>
+  </si>
+  <si>
+    <t>Kadeem Allen</t>
+  </si>
+  <si>
+    <t>Thomas Bryant</t>
+  </si>
+  <si>
+    <t>O.J. Mayo</t>
+  </si>
+  <si>
+    <t>Chris Boucher</t>
+  </si>
+  <si>
+    <t>Xavier Munford</t>
+  </si>
+  <si>
+    <t>Jonah Bolden</t>
+  </si>
+  <si>
+    <t>Mathias Lessort</t>
+  </si>
+  <si>
+    <t>Anzejs Pasecniks</t>
+  </si>
+  <si>
+    <t>Damien Inglis</t>
+  </si>
+  <si>
+    <t>Chase Budinger</t>
+  </si>
+  <si>
+    <t>Ty Lawson</t>
+  </si>
+  <si>
+    <t>Dahntay Jones</t>
+  </si>
+  <si>
+    <t>Mitchell Watt</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>Kevin Seraphin</t>
+  </si>
+  <si>
+    <t>Luka Mitrovic</t>
+  </si>
+  <si>
+    <t>Mike Tobey</t>
+  </si>
+  <si>
+    <t>J.P. Tokoto</t>
+  </si>
+  <si>
+    <t>Orlando Johnson</t>
+  </si>
+  <si>
+    <t>CJ Wilcox</t>
+  </si>
+  <si>
+    <t>Zoran Dragic</t>
+  </si>
+  <si>
+    <t>Diamond Stone</t>
+  </si>
+  <si>
+    <t>Steve Novak</t>
+  </si>
+  <si>
+    <t>Damjan Rudez</t>
+  </si>
+  <si>
+    <t>Chris Andersen</t>
+  </si>
+  <si>
+    <t>Tiago Splitter</t>
+  </si>
+  <si>
+    <t>Rakeem Christmas</t>
+  </si>
+  <si>
+    <t>Tim Frazier</t>
+  </si>
+  <si>
+    <t>Ekpe Udoh</t>
+  </si>
+  <si>
+    <t>Meyers Leonard</t>
+  </si>
+  <si>
+    <t>Salah Mejri</t>
+  </si>
+  <si>
+    <t>Nene Hilario</t>
+  </si>
+  <si>
+    <t>Alexis Ajinca</t>
+  </si>
+  <si>
+    <t>Jarrett Jack</t>
+  </si>
+  <si>
+    <t>Cheick Diallo</t>
+  </si>
+  <si>
+    <t>Gary Trent Jr.</t>
+  </si>
+  <si>
+    <t>Jarred Vanderbilt</t>
+  </si>
+  <si>
+    <t>Chimezie Metu</t>
+  </si>
+  <si>
+    <t>Devon Hall</t>
+  </si>
+  <si>
+    <t>Kevin Hervey</t>
+  </si>
+  <si>
+    <t>Ivan Rabb</t>
+  </si>
+  <si>
+    <t>Tyler Ennis</t>
+  </si>
+  <si>
+    <t>C.J. Williams</t>
+  </si>
+  <si>
+    <t>Josh Huestis</t>
+  </si>
+  <si>
+    <t>Joffrey Lauvergne</t>
+  </si>
+  <si>
+    <t>Torrey Craig</t>
+  </si>
+  <si>
+    <t>Damion Lee</t>
+  </si>
+  <si>
+    <t>Malik Beasley</t>
+  </si>
+  <si>
+    <t>Troy Williams</t>
+  </si>
+  <si>
+    <t>Jordan Crawford</t>
+  </si>
+  <si>
+    <t>Jalen Jones</t>
+  </si>
+  <si>
+    <t>Naz Mitrou-Long</t>
+  </si>
+  <si>
+    <t>Chris Kaman</t>
+  </si>
+  <si>
+    <t>Nick Collison</t>
+  </si>
+  <si>
+    <t>Joel Berry II</t>
+  </si>
+  <si>
+    <t>Josh Smith</t>
+  </si>
+  <si>
+    <t>Michael Cobbins</t>
+  </si>
+  <si>
+    <t>Phil Pressey</t>
+  </si>
+  <si>
+    <t>Sim Bhullar</t>
+  </si>
+  <si>
+    <t>Russ Smith</t>
+  </si>
+  <si>
+    <t>DeJuan Blair</t>
+  </si>
+  <si>
+    <t>Tyler Harvey</t>
+  </si>
+  <si>
+    <t>Pablo Prigioni</t>
+  </si>
+  <si>
+    <t>Elijah Millsap</t>
+  </si>
+  <si>
+    <t>Kevin Martin</t>
+  </si>
+  <si>
+    <t>Greg Smith</t>
+  </si>
+  <si>
+    <t>Terrence Jones</t>
+  </si>
+  <si>
+    <t>Andre Miller</t>
+  </si>
+  <si>
+    <t>Michael Gbinije</t>
+  </si>
+  <si>
+    <t>Jarell Martin</t>
+  </si>
+  <si>
+    <t>Malcolm Delaney</t>
+  </si>
+  <si>
+    <t>Issuf Sanon</t>
+  </si>
+  <si>
+    <t>Shake Milton</t>
+  </si>
+  <si>
+    <t>Isaiah Taylor</t>
+  </si>
+  <si>
+    <t>DeAndre Liggins</t>
+  </si>
+  <si>
+    <t>JaKarr Sampson</t>
+  </si>
+  <si>
+    <t>Joe Young</t>
+  </si>
+  <si>
+    <t>Damien Wilkins</t>
+  </si>
+  <si>
+    <t>Shabazz Muhammad</t>
+  </si>
+  <si>
+    <t>Kyle Collinsworth</t>
+  </si>
+  <si>
+    <t>Mirza Teletovic</t>
+  </si>
+  <si>
+    <t>Derrick Walton Jr.</t>
+  </si>
+  <si>
+    <t>Julyan Stone</t>
+  </si>
+  <si>
+    <t>Isaiah Hicks</t>
+  </si>
+  <si>
+    <t>Malachi Richardson</t>
+  </si>
+  <si>
+    <t>Malcolm Miller</t>
+  </si>
+  <si>
+    <t>Lorenzo Brown</t>
+  </si>
+  <si>
+    <t>Adreian Payne</t>
+  </si>
+  <si>
+    <t>Ike Anigbogu</t>
+  </si>
+  <si>
+    <t>Andrew White III</t>
+  </si>
+  <si>
+    <t>Alex Poythress</t>
+  </si>
+  <si>
+    <t>John Holland</t>
+  </si>
+  <si>
+    <t>Daniel Hamilton</t>
+  </si>
+  <si>
+    <t>Omer Asik</t>
+  </si>
+  <si>
+    <t>James Michael McAdoo</t>
+  </si>
+  <si>
+    <t>James Webb III</t>
+  </si>
+  <si>
+    <t>Amar'e Stoudemire</t>
+  </si>
+  <si>
+    <t>Marcus Paige</t>
+  </si>
+  <si>
+    <t>PJ Dozier</t>
+  </si>
+  <si>
+    <t>Jacob Pullen</t>
+  </si>
+  <si>
+    <t>Jacob Wiley</t>
+  </si>
+  <si>
+    <t>Jeremy Evans</t>
+  </si>
+  <si>
+    <t>Jarell Eddie</t>
+  </si>
+  <si>
+    <t>Cleanthony Early</t>
   </si>
 </sst>
 </file>
@@ -1319,15 +1922,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O345"/>
+  <dimension ref="A1:AA345"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:O331"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1:AA333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:27">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1373,8 +1976,44 @@
       <c r="O1" s="1">
         <v>43408</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="1">
+        <v>43408</v>
+      </c>
+      <c r="S1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U1" s="1">
+        <v>43408</v>
+      </c>
+      <c r="V1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X1" s="1">
+        <v>43408</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>43408</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1390,8 +2029,20 @@
       <c r="M2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" t="s">
+        <v>2</v>
+      </c>
+      <c r="V2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1407,8 +2058,20 @@
       <c r="M3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1424,8 +2087,20 @@
       <c r="M4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4" t="s">
+        <v>4</v>
+      </c>
+      <c r="S4" t="s">
+        <v>4</v>
+      </c>
+      <c r="V4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1441,8 +2116,20 @@
       <c r="M5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5" t="s">
+        <v>5</v>
+      </c>
+      <c r="S5" t="s">
+        <v>5</v>
+      </c>
+      <c r="V5" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -1458,8 +2145,20 @@
       <c r="M6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P6" t="s">
+        <v>1</v>
+      </c>
+      <c r="S6" t="s">
+        <v>1</v>
+      </c>
+      <c r="V6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1475,8 +2174,20 @@
       <c r="M8" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8" t="s">
+        <v>310</v>
+      </c>
+      <c r="S8" t="s">
+        <v>360</v>
+      </c>
+      <c r="V8" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1492,8 +2203,20 @@
       <c r="M9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9" t="s">
+        <v>41</v>
+      </c>
+      <c r="S9" t="s">
+        <v>26</v>
+      </c>
+      <c r="V9" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1509,8 +2232,20 @@
       <c r="M10" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10" t="s">
+        <v>18</v>
+      </c>
+      <c r="S10" t="s">
+        <v>35</v>
+      </c>
+      <c r="V10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1526,8 +2261,20 @@
       <c r="M11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11" t="s">
+        <v>9</v>
+      </c>
+      <c r="S11" t="s">
+        <v>9</v>
+      </c>
+      <c r="V11" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1543,16 +2290,37 @@
       <c r="M12" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12" t="s">
+        <v>42</v>
+      </c>
+      <c r="S12" t="s">
+        <v>112</v>
+      </c>
+      <c r="V12" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
       <c r="G13" s="2">
         <v>0.77083333333333337</v>
       </c>
       <c r="M13" s="2">
         <v>0.70833333333333337</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="S13" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="V13" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1562,8 +2330,11 @@
       <c r="J14" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="Y14" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1579,8 +2350,20 @@
       <c r="M15" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15" t="s">
+        <v>311</v>
+      </c>
+      <c r="S15" t="s">
+        <v>361</v>
+      </c>
+      <c r="V15" t="s">
+        <v>412</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1596,8 +2379,20 @@
       <c r="M16" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="P16" t="s">
+        <v>100</v>
+      </c>
+      <c r="S16" t="s">
+        <v>25</v>
+      </c>
+      <c r="V16" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -1613,8 +2408,20 @@
       <c r="M17" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="P17" t="s">
+        <v>96</v>
+      </c>
+      <c r="S17" t="s">
+        <v>50</v>
+      </c>
+      <c r="V17" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -1630,8 +2437,20 @@
       <c r="M18" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="P18" t="s">
+        <v>9</v>
+      </c>
+      <c r="S18" t="s">
+        <v>9</v>
+      </c>
+      <c r="V18" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
       <c r="A19" s="2">
         <v>0.625</v>
       </c>
@@ -1641,8 +2460,17 @@
       <c r="M19" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="P19" t="s">
+        <v>10</v>
+      </c>
+      <c r="S19" t="s">
+        <v>26</v>
+      </c>
+      <c r="V19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
       <c r="D20" t="s">
         <v>106</v>
       </c>
@@ -1655,8 +2483,17 @@
       <c r="M20" s="2">
         <v>0.52083333333333337</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="S20" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="V20" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -1666,8 +2503,14 @@
       <c r="J21" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="P21" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -1683,8 +2526,20 @@
       <c r="M22" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="P22" t="s">
+        <v>49</v>
+      </c>
+      <c r="S22" t="s">
+        <v>362</v>
+      </c>
+      <c r="V22" t="s">
+        <v>413</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -1700,8 +2555,20 @@
       <c r="M23" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="P23" t="s">
+        <v>35</v>
+      </c>
+      <c r="S23" t="s">
+        <v>16</v>
+      </c>
+      <c r="V23" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -1717,8 +2584,20 @@
       <c r="M24" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="P24" t="s">
+        <v>9</v>
+      </c>
+      <c r="S24" t="s">
+        <v>26</v>
+      </c>
+      <c r="V24" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -1728,8 +2607,17 @@
       <c r="M25" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="P25" t="s">
+        <v>10</v>
+      </c>
+      <c r="S25" t="s">
+        <v>96</v>
+      </c>
+      <c r="V25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -1745,8 +2633,17 @@
       <c r="M26" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="S26" t="s">
+        <v>9</v>
+      </c>
+      <c r="V26" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25">
       <c r="D27" t="s">
         <v>37</v>
       </c>
@@ -1756,8 +2653,20 @@
       <c r="J27" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="P27" t="s">
+        <v>313</v>
+      </c>
+      <c r="S27" t="s">
+        <v>112</v>
+      </c>
+      <c r="V27" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -1773,8 +2682,17 @@
       <c r="M28" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="P28" t="s">
+        <v>56</v>
+      </c>
+      <c r="S28" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -1787,8 +2705,17 @@
       <c r="M29" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="P29" t="s">
+        <v>29</v>
+      </c>
+      <c r="V29" t="s">
+        <v>414</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -1804,8 +2731,20 @@
       <c r="M30" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="P30" t="s">
+        <v>9</v>
+      </c>
+      <c r="S30" t="s">
+        <v>363</v>
+      </c>
+      <c r="V30" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -1818,8 +2757,20 @@
       <c r="M31" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="P31" t="s">
+        <v>10</v>
+      </c>
+      <c r="S31" t="s">
+        <v>76</v>
+      </c>
+      <c r="V31" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y31" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -1832,8 +2783,14 @@
       <c r="M32" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="S32" t="s">
+        <v>35</v>
+      </c>
+      <c r="V32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25">
       <c r="A33" t="s">
         <v>23</v>
       </c>
@@ -1846,8 +2803,20 @@
       <c r="J33" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="P33" t="s">
+        <v>314</v>
+      </c>
+      <c r="S33" t="s">
+        <v>9</v>
+      </c>
+      <c r="V33" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25">
       <c r="A34" s="2">
         <v>0.625</v>
       </c>
@@ -1863,8 +2832,20 @@
       <c r="M34" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="P34" t="s">
+        <v>87</v>
+      </c>
+      <c r="S34" t="s">
+        <v>10</v>
+      </c>
+      <c r="V34" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25">
       <c r="D35" t="s">
         <v>50</v>
       </c>
@@ -1874,8 +2855,14 @@
       <c r="M35" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="36" spans="1:13">
+      <c r="P35" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25">
       <c r="A36" t="s">
         <v>24</v>
       </c>
@@ -1891,8 +2878,20 @@
       <c r="M36" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="P36" t="s">
+        <v>9</v>
+      </c>
+      <c r="S36" t="s">
+        <v>364</v>
+      </c>
+      <c r="V36" t="s">
+        <v>415</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25">
       <c r="A37" t="s">
         <v>25</v>
       </c>
@@ -1908,8 +2907,20 @@
       <c r="M37" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="P37" t="s">
+        <v>28</v>
+      </c>
+      <c r="S37" t="s">
+        <v>107</v>
+      </c>
+      <c r="V37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25">
       <c r="A38" t="s">
         <v>22</v>
       </c>
@@ -1922,8 +2933,20 @@
       <c r="M38" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="P38" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="S38" t="s">
+        <v>22</v>
+      </c>
+      <c r="V38" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y38" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25">
       <c r="A39" t="s">
         <v>9</v>
       </c>
@@ -1936,8 +2959,14 @@
       <c r="M39" s="2">
         <v>0.625</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="S39" t="s">
+        <v>9</v>
+      </c>
+      <c r="V39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25">
       <c r="A40" t="s">
         <v>26</v>
       </c>
@@ -1950,8 +2979,20 @@
       <c r="J40" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="P40" t="s">
+        <v>315</v>
+      </c>
+      <c r="S40" t="s">
+        <v>10</v>
+      </c>
+      <c r="V40" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25">
       <c r="A41" s="2">
         <v>0.70833333333333337</v>
       </c>
@@ -1967,8 +3008,17 @@
       <c r="M41" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="P41" t="s">
+        <v>62</v>
+      </c>
+      <c r="V41" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25">
       <c r="D42" t="s">
         <v>50</v>
       </c>
@@ -1978,8 +3028,17 @@
       <c r="M42" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="P42" t="s">
+        <v>38</v>
+      </c>
+      <c r="S42" t="s">
+        <v>365</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25">
       <c r="A43" t="s">
         <v>27</v>
       </c>
@@ -1995,8 +3054,20 @@
       <c r="M43" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="P43" t="s">
+        <v>9</v>
+      </c>
+      <c r="S43" t="s">
+        <v>25</v>
+      </c>
+      <c r="V43" t="s">
+        <v>416</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25">
       <c r="A44" t="s">
         <v>28</v>
       </c>
@@ -2012,8 +3083,20 @@
       <c r="M44" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="45" spans="1:13">
+      <c r="P44" t="s">
+        <v>10</v>
+      </c>
+      <c r="S44" t="s">
+        <v>22</v>
+      </c>
+      <c r="V44" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25">
       <c r="A45" t="s">
         <v>29</v>
       </c>
@@ -2026,8 +3109,17 @@
       <c r="M45" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="46" spans="1:13">
+      <c r="S45" t="s">
+        <v>9</v>
+      </c>
+      <c r="V45" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y45" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25">
       <c r="A46" t="s">
         <v>9</v>
       </c>
@@ -2040,8 +3132,17 @@
       <c r="M46" s="2">
         <v>0.625</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="P46" t="s">
+        <v>316</v>
+      </c>
+      <c r="S46" t="s">
+        <v>26</v>
+      </c>
+      <c r="V46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25">
       <c r="A47" t="s">
         <v>30</v>
       </c>
@@ -2054,8 +3155,20 @@
       <c r="J47" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="48" spans="1:13">
+      <c r="P47" t="s">
+        <v>12</v>
+      </c>
+      <c r="S47" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="V47" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25">
       <c r="A48" s="2">
         <v>0.52083333333333337</v>
       </c>
@@ -2071,8 +3184,17 @@
       <c r="M48" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="49" spans="1:13">
+      <c r="P48" t="s">
+        <v>50</v>
+      </c>
+      <c r="V48" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25">
       <c r="D49" t="s">
         <v>8</v>
       </c>
@@ -2082,8 +3204,17 @@
       <c r="M49" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="P49" t="s">
+        <v>9</v>
+      </c>
+      <c r="S49" t="s">
+        <v>366</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25">
       <c r="A50" t="s">
         <v>31</v>
       </c>
@@ -2099,8 +3230,20 @@
       <c r="M50" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="51" spans="1:13">
+      <c r="P50" t="s">
+        <v>14</v>
+      </c>
+      <c r="S50" t="s">
+        <v>107</v>
+      </c>
+      <c r="V50" t="s">
+        <v>417</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25">
       <c r="A51" t="s">
         <v>32</v>
       </c>
@@ -2116,8 +3259,20 @@
       <c r="M51" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="52" spans="1:13">
+      <c r="P51" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="S51" t="s">
+        <v>50</v>
+      </c>
+      <c r="V51" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25">
       <c r="A52" t="s">
         <v>13</v>
       </c>
@@ -2130,8 +3285,17 @@
       <c r="M52" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="S52" t="s">
+        <v>9</v>
+      </c>
+      <c r="V52" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y52" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -2141,8 +3305,17 @@
       <c r="J53" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="P53" t="s">
+        <v>317</v>
+      </c>
+      <c r="S53" t="s">
+        <v>10</v>
+      </c>
+      <c r="V53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25">
       <c r="A54" t="s">
         <v>10</v>
       </c>
@@ -2158,8 +3331,17 @@
       <c r="M54" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="55" spans="1:13">
+      <c r="P54" t="s">
+        <v>95</v>
+      </c>
+      <c r="V54" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25">
       <c r="D55" t="s">
         <v>32</v>
       </c>
@@ -2172,8 +3354,20 @@
       <c r="M55" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="56" spans="1:13">
+      <c r="P55" t="s">
+        <v>22</v>
+      </c>
+      <c r="S55" t="s">
+        <v>367</v>
+      </c>
+      <c r="V55" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25">
       <c r="A56" t="s">
         <v>33</v>
       </c>
@@ -2186,8 +3380,17 @@
       <c r="M56" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="57" spans="1:13">
+      <c r="P56" t="s">
+        <v>9</v>
+      </c>
+      <c r="S56" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25">
       <c r="A57" t="s">
         <v>20</v>
       </c>
@@ -2203,8 +3406,20 @@
       <c r="M57" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="58" spans="1:13">
+      <c r="P57" t="s">
+        <v>12</v>
+      </c>
+      <c r="S57" t="s">
+        <v>38</v>
+      </c>
+      <c r="V57" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25">
       <c r="A58" t="s">
         <v>34</v>
       </c>
@@ -2220,8 +3435,20 @@
       <c r="M58" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="P58" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="S58" t="s">
+        <v>9</v>
+      </c>
+      <c r="V58" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25">
       <c r="A59" t="s">
         <v>35</v>
       </c>
@@ -2234,8 +3461,14 @@
       <c r="M59" s="2">
         <v>0.52083333333333337</v>
       </c>
-    </row>
-    <row r="60" spans="1:13">
+      <c r="S59" t="s">
+        <v>37</v>
+      </c>
+      <c r="V59" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25">
       <c r="A60" t="s">
         <v>9</v>
       </c>
@@ -2245,8 +3478,20 @@
       <c r="G60" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="61" spans="1:13">
+      <c r="P60" t="s">
+        <v>318</v>
+      </c>
+      <c r="S60" s="2">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="V60" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25">
       <c r="A61" t="s">
         <v>10</v>
       </c>
@@ -2262,8 +3507,17 @@
       <c r="M61" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="62" spans="1:13">
+      <c r="P61" t="s">
+        <v>95</v>
+      </c>
+      <c r="V61" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25">
       <c r="D62" t="s">
         <v>8</v>
       </c>
@@ -2276,8 +3530,17 @@
       <c r="M62" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="63" spans="1:13">
+      <c r="P62" t="s">
+        <v>29</v>
+      </c>
+      <c r="S62" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25">
       <c r="A63" t="s">
         <v>36</v>
       </c>
@@ -2290,8 +3553,20 @@
       <c r="M63" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="64" spans="1:13">
+      <c r="P63" t="s">
+        <v>9</v>
+      </c>
+      <c r="S63" t="s">
+        <v>52</v>
+      </c>
+      <c r="V63" t="s">
+        <v>419</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25">
       <c r="A64" t="s">
         <v>37</v>
       </c>
@@ -2307,8 +3582,20 @@
       <c r="M64" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="65" spans="1:13">
+      <c r="P64" t="s">
+        <v>12</v>
+      </c>
+      <c r="S64" t="s">
+        <v>29</v>
+      </c>
+      <c r="V64" t="s">
+        <v>420</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25">
       <c r="A65" t="s">
         <v>38</v>
       </c>
@@ -2324,8 +3611,20 @@
       <c r="M65" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="66" spans="1:13">
+      <c r="P65" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="S65" t="s">
+        <v>9</v>
+      </c>
+      <c r="V65" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y65" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25">
       <c r="A66" t="s">
         <v>9</v>
       </c>
@@ -2335,8 +3634,14 @@
       <c r="M66" s="2">
         <v>0.52083333333333337</v>
       </c>
-    </row>
-    <row r="67" spans="1:13">
+      <c r="S66" t="s">
+        <v>10</v>
+      </c>
+      <c r="V66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25">
       <c r="A67" t="s">
         <v>39</v>
       </c>
@@ -2349,8 +3654,17 @@
       <c r="J67" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="68" spans="1:13">
+      <c r="P67" t="s">
+        <v>319</v>
+      </c>
+      <c r="V67" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25">
       <c r="A68" s="2">
         <v>0.77083333333333337</v>
       </c>
@@ -2366,8 +3680,17 @@
       <c r="M68" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="69" spans="1:13">
+      <c r="P68" t="s">
+        <v>21</v>
+      </c>
+      <c r="S68" t="s">
+        <v>369</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25">
       <c r="D69" t="s">
         <v>26</v>
       </c>
@@ -2380,8 +3703,20 @@
       <c r="M69" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="70" spans="1:13">
+      <c r="P69" t="s">
+        <v>50</v>
+      </c>
+      <c r="S69" t="s">
+        <v>47</v>
+      </c>
+      <c r="V69" t="s">
+        <v>421</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25">
       <c r="A70" t="s">
         <v>40</v>
       </c>
@@ -2397,8 +3732,20 @@
       <c r="M70" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="71" spans="1:13">
+      <c r="P70" t="s">
+        <v>9</v>
+      </c>
+      <c r="S70" t="s">
+        <v>284</v>
+      </c>
+      <c r="V70" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25">
       <c r="A71" t="s">
         <v>41</v>
       </c>
@@ -2411,8 +3758,20 @@
       <c r="M71" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="72" spans="1:13">
+      <c r="P71" t="s">
+        <v>23</v>
+      </c>
+      <c r="S71" t="s">
+        <v>9</v>
+      </c>
+      <c r="V71" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25">
       <c r="A72" t="s">
         <v>38</v>
       </c>
@@ -2428,8 +3787,20 @@
       <c r="M72" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="73" spans="1:13">
+      <c r="P72" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="S72" t="s">
+        <v>10</v>
+      </c>
+      <c r="V72" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y72" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25">
       <c r="A73" t="s">
         <v>9</v>
       </c>
@@ -2442,8 +3813,11 @@
       <c r="M73" s="2">
         <v>0.625</v>
       </c>
-    </row>
-    <row r="74" spans="1:13">
+      <c r="V73" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25">
       <c r="A74" t="s">
         <v>42</v>
       </c>
@@ -2453,8 +3827,17 @@
       <c r="J74" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="75" spans="1:13">
+      <c r="P74" t="s">
+        <v>320</v>
+      </c>
+      <c r="S74" t="s">
+        <v>370</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25">
       <c r="A75" s="2">
         <v>0.66666666666666663</v>
       </c>
@@ -2470,8 +3853,20 @@
       <c r="M75" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="76" spans="1:13">
+      <c r="P75" t="s">
+        <v>83</v>
+      </c>
+      <c r="S75" t="s">
+        <v>67</v>
+      </c>
+      <c r="V75" t="s">
+        <v>422</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25">
       <c r="D76" t="s">
         <v>34</v>
       </c>
@@ -2484,8 +3879,20 @@
       <c r="M76" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="77" spans="1:13">
+      <c r="P76" t="s">
+        <v>50</v>
+      </c>
+      <c r="S76" t="s">
+        <v>50</v>
+      </c>
+      <c r="V76" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25">
       <c r="A77" t="s">
         <v>43</v>
       </c>
@@ -2501,8 +3908,20 @@
       <c r="M77" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="78" spans="1:13">
+      <c r="P77" t="s">
+        <v>9</v>
+      </c>
+      <c r="S77" t="s">
+        <v>9</v>
+      </c>
+      <c r="V77" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25">
       <c r="A78" t="s">
         <v>7</v>
       </c>
@@ -2515,8 +3934,20 @@
       <c r="M78" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="79" spans="1:13">
+      <c r="P78" t="s">
+        <v>84</v>
+      </c>
+      <c r="S78" t="s">
+        <v>41</v>
+      </c>
+      <c r="V78" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="79" spans="1:25">
       <c r="A79" t="s">
         <v>35</v>
       </c>
@@ -2532,8 +3963,20 @@
       <c r="M79" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="80" spans="1:13">
+      <c r="P79" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="S79" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="V79" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y79" s="2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25">
       <c r="A80" t="s">
         <v>9</v>
       </c>
@@ -2543,8 +3986,11 @@
       <c r="M80" s="2">
         <v>0.625</v>
       </c>
-    </row>
-    <row r="81" spans="1:13">
+      <c r="V80" s="2">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="81" spans="1:25">
       <c r="A81" t="s">
         <v>10</v>
       </c>
@@ -2557,8 +4003,17 @@
       <c r="J81" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="82" spans="1:13">
+      <c r="P81" t="s">
+        <v>321</v>
+      </c>
+      <c r="S81" t="s">
+        <v>371</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="82" spans="1:25">
       <c r="D82" t="s">
         <v>20</v>
       </c>
@@ -2571,8 +4026,20 @@
       <c r="M82" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="83" spans="1:13">
+      <c r="P82" t="s">
+        <v>67</v>
+      </c>
+      <c r="S82" t="s">
+        <v>34</v>
+      </c>
+      <c r="V82" t="s">
+        <v>423</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="83" spans="1:25">
       <c r="A83" t="s">
         <v>44</v>
       </c>
@@ -2588,8 +4055,20 @@
       <c r="M83" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="84" spans="1:13">
+      <c r="P83" t="s">
+        <v>284</v>
+      </c>
+      <c r="S83" t="s">
+        <v>35</v>
+      </c>
+      <c r="V83" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="84" spans="1:25">
       <c r="A84" t="s">
         <v>45</v>
       </c>
@@ -2605,8 +4084,20 @@
       <c r="M84" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="85" spans="1:13">
+      <c r="P84" t="s">
+        <v>9</v>
+      </c>
+      <c r="S84" t="s">
+        <v>9</v>
+      </c>
+      <c r="V84" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:25">
       <c r="A85" t="s">
         <v>8</v>
       </c>
@@ -2619,8 +4110,20 @@
       <c r="M85" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="86" spans="1:13">
+      <c r="P85" t="s">
+        <v>41</v>
+      </c>
+      <c r="S85" t="s">
+        <v>10</v>
+      </c>
+      <c r="V85" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:25">
       <c r="A86" t="s">
         <v>9</v>
       </c>
@@ -2636,16 +4139,28 @@
       <c r="M86" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="87" spans="1:13">
+      <c r="P86" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="V86" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:25">
       <c r="A87" t="s">
         <v>37</v>
       </c>
       <c r="G87" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="88" spans="1:13">
+      <c r="S87" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="88" spans="1:25">
       <c r="A88" s="2">
         <v>0.77083333333333337</v>
       </c>
@@ -2661,8 +4176,20 @@
       <c r="M88" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="89" spans="1:13">
+      <c r="P88" t="s">
+        <v>322</v>
+      </c>
+      <c r="S88" t="s">
+        <v>45</v>
+      </c>
+      <c r="V88" t="s">
+        <v>424</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="89" spans="1:25">
       <c r="D89" t="s">
         <v>64</v>
       </c>
@@ -2675,8 +4202,20 @@
       <c r="M89" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="90" spans="1:13">
+      <c r="P89" t="s">
+        <v>16</v>
+      </c>
+      <c r="S89" t="s">
+        <v>96</v>
+      </c>
+      <c r="V89" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="90" spans="1:25">
       <c r="A90" t="s">
         <v>46</v>
       </c>
@@ -2692,8 +4231,20 @@
       <c r="M90" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="91" spans="1:13">
+      <c r="P90" t="s">
+        <v>76</v>
+      </c>
+      <c r="S90" t="s">
+        <v>9</v>
+      </c>
+      <c r="V90" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:25">
       <c r="A91" t="s">
         <v>47</v>
       </c>
@@ -2706,8 +4257,20 @@
       <c r="M91" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="92" spans="1:13">
+      <c r="P91" t="s">
+        <v>22</v>
+      </c>
+      <c r="S91" t="s">
+        <v>37</v>
+      </c>
+      <c r="V91" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="92" spans="1:25">
       <c r="A92" t="s">
         <v>35</v>
       </c>
@@ -2723,8 +4286,20 @@
       <c r="M92" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="93" spans="1:13">
+      <c r="P92" t="s">
+        <v>9</v>
+      </c>
+      <c r="S92" s="2">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="V92" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y92" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="93" spans="1:25">
       <c r="A93" t="s">
         <v>9</v>
       </c>
@@ -2734,8 +4309,14 @@
       <c r="M93" s="2">
         <v>0.52083333333333337</v>
       </c>
-    </row>
-    <row r="94" spans="1:13">
+      <c r="P93" t="s">
+        <v>10</v>
+      </c>
+      <c r="V93" s="2">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="94" spans="1:25">
       <c r="A94" t="s">
         <v>10</v>
       </c>
@@ -2748,8 +4329,14 @@
       <c r="J94" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="95" spans="1:13">
+      <c r="S94" t="s">
+        <v>373</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="95" spans="1:25">
       <c r="D95" t="s">
         <v>64</v>
       </c>
@@ -2762,8 +4349,20 @@
       <c r="M95" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="96" spans="1:13">
+      <c r="P95" t="s">
+        <v>323</v>
+      </c>
+      <c r="S95" t="s">
+        <v>93</v>
+      </c>
+      <c r="V95" t="s">
+        <v>425</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96" spans="1:25">
       <c r="A96" t="s">
         <v>48</v>
       </c>
@@ -2779,8 +4378,20 @@
       <c r="M96" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="97" spans="1:13">
+      <c r="P96" t="s">
+        <v>26</v>
+      </c>
+      <c r="S96" t="s">
+        <v>22</v>
+      </c>
+      <c r="V96" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="97" spans="1:25">
       <c r="A97" t="s">
         <v>16</v>
       </c>
@@ -2793,8 +4404,20 @@
       <c r="M97" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="98" spans="1:13">
+      <c r="P97" t="s">
+        <v>35</v>
+      </c>
+      <c r="S97" t="s">
+        <v>9</v>
+      </c>
+      <c r="V97" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:25">
       <c r="A98" t="s">
         <v>49</v>
       </c>
@@ -2810,8 +4433,20 @@
       <c r="M98" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="99" spans="1:13">
+      <c r="P98" t="s">
+        <v>9</v>
+      </c>
+      <c r="S98" t="s">
+        <v>10</v>
+      </c>
+      <c r="V98" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:25">
       <c r="A99" t="s">
         <v>50</v>
       </c>
@@ -2821,8 +4456,14 @@
       <c r="M99" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="100" spans="1:13">
+      <c r="P99" t="s">
+        <v>112</v>
+      </c>
+      <c r="V99" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="100" spans="1:25">
       <c r="A100" t="s">
         <v>9</v>
       </c>
@@ -2835,8 +4476,20 @@
       <c r="J100" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="101" spans="1:13">
+      <c r="P100" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="S100" t="s">
+        <v>374</v>
+      </c>
+      <c r="V100" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="101" spans="1:25">
       <c r="A101" t="s">
         <v>10</v>
       </c>
@@ -2852,8 +4505,14 @@
       <c r="M101" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="102" spans="1:13">
+      <c r="S101" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="102" spans="1:25">
       <c r="D102" t="s">
         <v>29</v>
       </c>
@@ -2866,8 +4525,20 @@
       <c r="M102" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="103" spans="1:13">
+      <c r="P102" t="s">
+        <v>324</v>
+      </c>
+      <c r="S102" t="s">
+        <v>77</v>
+      </c>
+      <c r="V102" t="s">
+        <v>426</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="103" spans="1:25">
       <c r="A103" t="s">
         <v>51</v>
       </c>
@@ -2883,8 +4554,20 @@
       <c r="M103" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="104" spans="1:13">
+      <c r="P103" t="s">
+        <v>93</v>
+      </c>
+      <c r="S103" t="s">
+        <v>9</v>
+      </c>
+      <c r="V103" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y103" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:25">
       <c r="A104" t="s">
         <v>16</v>
       </c>
@@ -2897,8 +4580,20 @@
       <c r="M104" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="105" spans="1:13">
+      <c r="P104" t="s">
+        <v>50</v>
+      </c>
+      <c r="S104" t="s">
+        <v>10</v>
+      </c>
+      <c r="V104" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y104" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="105" spans="1:25">
       <c r="A105" t="s">
         <v>52</v>
       </c>
@@ -2914,8 +4609,17 @@
       <c r="M105" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="106" spans="1:13">
+      <c r="P105" t="s">
+        <v>9</v>
+      </c>
+      <c r="V105" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y105" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="106" spans="1:25">
       <c r="A106" t="s">
         <v>38</v>
       </c>
@@ -2925,8 +4629,17 @@
       <c r="M106" s="2">
         <v>0.77083333333333337</v>
       </c>
-    </row>
-    <row r="107" spans="1:13">
+      <c r="P106" t="s">
+        <v>10</v>
+      </c>
+      <c r="S106" t="s">
+        <v>375</v>
+      </c>
+      <c r="V106" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:25">
       <c r="A107" t="s">
         <v>9</v>
       </c>
@@ -2939,8 +4652,14 @@
       <c r="J107" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="108" spans="1:13">
+      <c r="S107" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y107" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="108" spans="1:25">
       <c r="A108" t="s">
         <v>10</v>
       </c>
@@ -2956,8 +4675,20 @@
       <c r="M108" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="109" spans="1:13">
+      <c r="P108" t="s">
+        <v>325</v>
+      </c>
+      <c r="S108" t="s">
+        <v>38</v>
+      </c>
+      <c r="V108" t="s">
+        <v>427</v>
+      </c>
+      <c r="Y108" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="109" spans="1:25">
       <c r="D109" t="s">
         <v>29</v>
       </c>
@@ -2970,8 +4701,20 @@
       <c r="M109" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="110" spans="1:13">
+      <c r="P109" t="s">
+        <v>16</v>
+      </c>
+      <c r="S109" t="s">
+        <v>9</v>
+      </c>
+      <c r="V109" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y109" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="110" spans="1:25">
       <c r="A110" t="s">
         <v>53</v>
       </c>
@@ -2987,8 +4730,20 @@
       <c r="M110" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="111" spans="1:13">
+      <c r="P110" t="s">
+        <v>17</v>
+      </c>
+      <c r="S110" t="s">
+        <v>84</v>
+      </c>
+      <c r="V110" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y110" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:25">
       <c r="A111" t="s">
         <v>54</v>
       </c>
@@ -3001,8 +4756,20 @@
       <c r="M111" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="112" spans="1:13">
+      <c r="P111" t="s">
+        <v>50</v>
+      </c>
+      <c r="S111" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="V111" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y111" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="112" spans="1:25">
       <c r="A112" t="s">
         <v>22</v>
       </c>
@@ -3015,8 +4782,17 @@
       <c r="M112" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="113" spans="1:13">
+      <c r="P112" t="s">
+        <v>9</v>
+      </c>
+      <c r="V112" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y112" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="113" spans="1:25">
       <c r="A113" t="s">
         <v>9</v>
       </c>
@@ -3026,8 +4802,14 @@
       <c r="J113" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="114" spans="1:13">
+      <c r="P113" t="s">
+        <v>10</v>
+      </c>
+      <c r="S113" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="114" spans="1:25">
       <c r="A114" t="s">
         <v>10</v>
       </c>
@@ -3043,8 +4825,17 @@
       <c r="M114" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="115" spans="1:13">
+      <c r="S114" t="s">
+        <v>83</v>
+      </c>
+      <c r="V114" t="s">
+        <v>428</v>
+      </c>
+      <c r="Y114" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="115" spans="1:25">
       <c r="D115" t="s">
         <v>87</v>
       </c>
@@ -3057,8 +4848,20 @@
       <c r="M115" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="116" spans="1:13">
+      <c r="P115" t="s">
+        <v>326</v>
+      </c>
+      <c r="S115" t="s">
+        <v>29</v>
+      </c>
+      <c r="V115" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y115" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="116" spans="1:25">
       <c r="A116" t="s">
         <v>55</v>
       </c>
@@ -3074,8 +4877,20 @@
       <c r="M116" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="117" spans="1:13">
+      <c r="P116" t="s">
+        <v>136</v>
+      </c>
+      <c r="S116" t="s">
+        <v>9</v>
+      </c>
+      <c r="V116" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y116" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="117" spans="1:25">
       <c r="A117" t="s">
         <v>20</v>
       </c>
@@ -3088,8 +4903,20 @@
       <c r="M117" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="118" spans="1:13">
+      <c r="P117" t="s">
+        <v>22</v>
+      </c>
+      <c r="S117" t="s">
+        <v>84</v>
+      </c>
+      <c r="V117" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y117" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:25">
       <c r="A118" t="s">
         <v>56</v>
       </c>
@@ -3105,8 +4932,20 @@
       <c r="M118" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="119" spans="1:13">
+      <c r="P118" t="s">
+        <v>9</v>
+      </c>
+      <c r="S118" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="V118" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y118" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:25">
       <c r="A119" t="s">
         <v>50</v>
       </c>
@@ -3116,8 +4955,11 @@
       <c r="G119" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="120" spans="1:13">
+      <c r="P119" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:25">
       <c r="A120" t="s">
         <v>9</v>
       </c>
@@ -3130,8 +4972,17 @@
       <c r="M120" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="121" spans="1:13">
+      <c r="S120" t="s">
+        <v>377</v>
+      </c>
+      <c r="V120" t="s">
+        <v>429</v>
+      </c>
+      <c r="Y120" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="121" spans="1:25">
       <c r="A121" t="s">
         <v>10</v>
       </c>
@@ -3147,8 +4998,20 @@
       <c r="M121" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="122" spans="1:13">
+      <c r="P121" t="s">
+        <v>327</v>
+      </c>
+      <c r="S121" t="s">
+        <v>76</v>
+      </c>
+      <c r="V121" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y121" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="122" spans="1:25">
       <c r="D122" t="s">
         <v>34</v>
       </c>
@@ -3161,8 +5024,20 @@
       <c r="M122" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="123" spans="1:13">
+      <c r="P122" t="s">
+        <v>16</v>
+      </c>
+      <c r="S122" t="s">
+        <v>35</v>
+      </c>
+      <c r="V122" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y122" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="123" spans="1:25">
       <c r="A123" t="s">
         <v>57</v>
       </c>
@@ -3178,8 +5053,20 @@
       <c r="M123" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="124" spans="1:13">
+      <c r="P123" t="s">
+        <v>45</v>
+      </c>
+      <c r="S123" t="s">
+        <v>9</v>
+      </c>
+      <c r="V123" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y123" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:25">
       <c r="A124" t="s">
         <v>21</v>
       </c>
@@ -3192,8 +5079,20 @@
       <c r="M124" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="125" spans="1:13">
+      <c r="P124" t="s">
+        <v>60</v>
+      </c>
+      <c r="S124" t="s">
+        <v>10</v>
+      </c>
+      <c r="V124" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y124" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="125" spans="1:25">
       <c r="A125" t="s">
         <v>35</v>
       </c>
@@ -3209,16 +5108,31 @@
       <c r="M125" s="2">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="126" spans="1:13">
+      <c r="P125" t="s">
+        <v>9</v>
+      </c>
+      <c r="V125" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="Y125" s="2">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="126" spans="1:25">
       <c r="A126" t="s">
         <v>9</v>
       </c>
       <c r="G126" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="127" spans="1:13">
+      <c r="P126" t="s">
+        <v>37</v>
+      </c>
+      <c r="S126" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="127" spans="1:25">
       <c r="A127" t="s">
         <v>23</v>
       </c>
@@ -3234,8 +5148,20 @@
       <c r="M127" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="128" spans="1:13">
+      <c r="P127" s="2">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="S127" t="s">
+        <v>28</v>
+      </c>
+      <c r="V127" t="s">
+        <v>430</v>
+      </c>
+      <c r="Y127" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="128" spans="1:25">
       <c r="A128" s="2">
         <v>0.625</v>
       </c>
@@ -3251,8 +5177,17 @@
       <c r="M128" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="129" spans="1:13">
+      <c r="S128" t="s">
+        <v>22</v>
+      </c>
+      <c r="V128" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y128" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129" spans="1:25">
       <c r="D129" t="s">
         <v>38</v>
       </c>
@@ -3265,8 +5200,20 @@
       <c r="M129" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="130" spans="1:13">
+      <c r="P129" t="s">
+        <v>328</v>
+      </c>
+      <c r="S129" t="s">
+        <v>9</v>
+      </c>
+      <c r="V129" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y129" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="130" spans="1:25">
       <c r="A130" t="s">
         <v>58</v>
       </c>
@@ -3282,8 +5229,20 @@
       <c r="M130" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="131" spans="1:13">
+      <c r="P130" t="s">
+        <v>93</v>
+      </c>
+      <c r="S130" t="s">
+        <v>30</v>
+      </c>
+      <c r="V130" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y130" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131" spans="1:25">
       <c r="A131" t="s">
         <v>17</v>
       </c>
@@ -3296,8 +5255,20 @@
       <c r="M131" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="132" spans="1:13">
+      <c r="P131" t="s">
+        <v>77</v>
+      </c>
+      <c r="S131" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="V131" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y131" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="132" spans="1:25">
       <c r="A132" t="s">
         <v>22</v>
       </c>
@@ -3307,8 +5278,17 @@
       <c r="G132" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="133" spans="1:13">
+      <c r="P132" t="s">
+        <v>9</v>
+      </c>
+      <c r="V132" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Y132" s="2">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="133" spans="1:25">
       <c r="A133" t="s">
         <v>9</v>
       </c>
@@ -3321,8 +5301,14 @@
       <c r="M133" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="134" spans="1:13">
+      <c r="P133" t="s">
+        <v>10</v>
+      </c>
+      <c r="S133" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="134" spans="1:25">
       <c r="A134" t="s">
         <v>10</v>
       </c>
@@ -3338,8 +5324,17 @@
       <c r="M134" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="135" spans="1:13">
+      <c r="S134" t="s">
+        <v>17</v>
+      </c>
+      <c r="V134" t="s">
+        <v>431</v>
+      </c>
+      <c r="Y134" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="135" spans="1:25">
       <c r="D135" t="s">
         <v>47</v>
       </c>
@@ -3352,8 +5347,20 @@
       <c r="M135" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="136" spans="1:13">
+      <c r="P135" t="s">
+        <v>329</v>
+      </c>
+      <c r="S135" t="s">
+        <v>22</v>
+      </c>
+      <c r="V135" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y135" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="136" spans="1:25">
       <c r="A136" t="s">
         <v>59</v>
       </c>
@@ -3369,8 +5376,20 @@
       <c r="M136" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="137" spans="1:13">
+      <c r="P136" t="s">
+        <v>136</v>
+      </c>
+      <c r="S136" t="s">
+        <v>9</v>
+      </c>
+      <c r="V136" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y136" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="137" spans="1:25">
       <c r="A137" t="s">
         <v>7</v>
       </c>
@@ -3383,8 +5402,20 @@
       <c r="M137" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="138" spans="1:13">
+      <c r="P137" t="s">
+        <v>50</v>
+      </c>
+      <c r="S137" t="s">
+        <v>10</v>
+      </c>
+      <c r="V137" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y137" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="138" spans="1:25">
       <c r="A138" t="s">
         <v>60</v>
       </c>
@@ -3397,8 +5428,17 @@
       <c r="J138" s="2">
         <v>0.52083333333333337</v>
       </c>
-    </row>
-    <row r="139" spans="1:13">
+      <c r="P138" t="s">
+        <v>9</v>
+      </c>
+      <c r="V138" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y138" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139" spans="1:25">
       <c r="A139" t="s">
         <v>9</v>
       </c>
@@ -3408,8 +5448,17 @@
       <c r="M139" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="140" spans="1:13">
+      <c r="P139" t="s">
+        <v>10</v>
+      </c>
+      <c r="S139" t="s">
+        <v>380</v>
+      </c>
+      <c r="Y139" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="1:25">
       <c r="A140" t="s">
         <v>10</v>
       </c>
@@ -3425,8 +5474,14 @@
       <c r="M140" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="141" spans="1:13">
+      <c r="S140" t="s">
+        <v>107</v>
+      </c>
+      <c r="V140" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="141" spans="1:25">
       <c r="D141" t="s">
         <v>20</v>
       </c>
@@ -3439,8 +5494,20 @@
       <c r="M141" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="142" spans="1:13">
+      <c r="P141" t="s">
+        <v>330</v>
+      </c>
+      <c r="S141" t="s">
+        <v>50</v>
+      </c>
+      <c r="V141" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y141" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="142" spans="1:25">
       <c r="A142" t="s">
         <v>61</v>
       </c>
@@ -3456,8 +5523,20 @@
       <c r="M142" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="143" spans="1:13">
+      <c r="P142" t="s">
+        <v>84</v>
+      </c>
+      <c r="S142" t="s">
+        <v>9</v>
+      </c>
+      <c r="V142" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y142" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="143" spans="1:25">
       <c r="A143" t="s">
         <v>62</v>
       </c>
@@ -3473,8 +5552,20 @@
       <c r="M143" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="144" spans="1:13">
+      <c r="P143" t="s">
+        <v>35</v>
+      </c>
+      <c r="S143" t="s">
+        <v>10</v>
+      </c>
+      <c r="V143" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y143" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="144" spans="1:25">
       <c r="A144" t="s">
         <v>38</v>
       </c>
@@ -3487,8 +5578,17 @@
       <c r="J144" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="145" spans="1:13">
+      <c r="P144" t="s">
+        <v>9</v>
+      </c>
+      <c r="V144" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y144" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145" spans="1:25">
       <c r="A145" t="s">
         <v>9</v>
       </c>
@@ -3501,8 +5601,20 @@
       <c r="M145" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="146" spans="1:13">
+      <c r="P145" t="s">
+        <v>134</v>
+      </c>
+      <c r="S145" t="s">
+        <v>381</v>
+      </c>
+      <c r="V145" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="Y145" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:25">
       <c r="A146" t="s">
         <v>10</v>
       </c>
@@ -3512,8 +5624,14 @@
       <c r="M146" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="147" spans="1:13">
+      <c r="P146" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="S146" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="147" spans="1:25">
       <c r="D147" t="s">
         <v>128</v>
       </c>
@@ -3526,8 +5644,17 @@
       <c r="M147" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="148" spans="1:13">
+      <c r="S147" t="s">
+        <v>35</v>
+      </c>
+      <c r="V147" t="s">
+        <v>433</v>
+      </c>
+      <c r="Y147" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="148" spans="1:25">
       <c r="A148" t="s">
         <v>63</v>
       </c>
@@ -3543,8 +5670,20 @@
       <c r="M148" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="149" spans="1:13">
+      <c r="P148" t="s">
+        <v>331</v>
+      </c>
+      <c r="S148" t="s">
+        <v>9</v>
+      </c>
+      <c r="V148" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y148" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="149" spans="1:25">
       <c r="A149" t="s">
         <v>64</v>
       </c>
@@ -3560,8 +5699,20 @@
       <c r="M149" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="150" spans="1:13">
+      <c r="P149" t="s">
+        <v>67</v>
+      </c>
+      <c r="S149" t="s">
+        <v>10</v>
+      </c>
+      <c r="V149" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y149" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="150" spans="1:25">
       <c r="A150" t="s">
         <v>22</v>
       </c>
@@ -3574,8 +5725,17 @@
       <c r="J150" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="151" spans="1:13">
+      <c r="P150" t="s">
+        <v>22</v>
+      </c>
+      <c r="V150" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y150" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151" spans="1:25">
       <c r="A151" t="s">
         <v>9</v>
       </c>
@@ -3591,8 +5751,20 @@
       <c r="M151" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="152" spans="1:13">
+      <c r="P151" t="s">
+        <v>9</v>
+      </c>
+      <c r="S151" t="s">
+        <v>382</v>
+      </c>
+      <c r="V151" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y151" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152" spans="1:25">
       <c r="A152" t="s">
         <v>10</v>
       </c>
@@ -3602,8 +5774,14 @@
       <c r="M152" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="153" spans="1:13">
+      <c r="P152" t="s">
+        <v>41</v>
+      </c>
+      <c r="S152" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="153" spans="1:25">
       <c r="D153" s="2">
         <v>0.66666666666666663</v>
       </c>
@@ -3616,8 +5794,20 @@
       <c r="M153" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="154" spans="1:13">
+      <c r="P153" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="S153" t="s">
+        <v>35</v>
+      </c>
+      <c r="V153" t="s">
+        <v>434</v>
+      </c>
+      <c r="Y153" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="154" spans="1:25">
       <c r="A154" t="s">
         <v>65</v>
       </c>
@@ -3630,8 +5820,17 @@
       <c r="M154" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="155" spans="1:13">
+      <c r="S154" t="s">
+        <v>9</v>
+      </c>
+      <c r="V154" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y154" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="155" spans="1:25">
       <c r="A155" t="s">
         <v>16</v>
       </c>
@@ -3647,8 +5846,20 @@
       <c r="M155" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="156" spans="1:13">
+      <c r="P155" t="s">
+        <v>332</v>
+      </c>
+      <c r="S155" t="s">
+        <v>10</v>
+      </c>
+      <c r="V155" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y155" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="156" spans="1:25">
       <c r="A156" t="s">
         <v>41</v>
       </c>
@@ -3664,8 +5875,17 @@
       <c r="M156" s="2">
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="157" spans="1:13">
+      <c r="P156" t="s">
+        <v>34</v>
+      </c>
+      <c r="V156" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y156" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="157" spans="1:25">
       <c r="A157" t="s">
         <v>22</v>
       </c>
@@ -3678,8 +5898,20 @@
       <c r="J157" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="158" spans="1:13">
+      <c r="P157" t="s">
+        <v>29</v>
+      </c>
+      <c r="S157" t="s">
+        <v>383</v>
+      </c>
+      <c r="V157" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y157" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158" spans="1:25">
       <c r="A158" t="s">
         <v>9</v>
       </c>
@@ -3692,8 +5924,14 @@
       <c r="M158" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="159" spans="1:13">
+      <c r="P158" t="s">
+        <v>9</v>
+      </c>
+      <c r="S158" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="159" spans="1:25">
       <c r="A159" t="s">
         <v>42</v>
       </c>
@@ -3706,8 +5944,20 @@
       <c r="M159" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="160" spans="1:13">
+      <c r="P159" t="s">
+        <v>10</v>
+      </c>
+      <c r="S159" t="s">
+        <v>29</v>
+      </c>
+      <c r="V159" t="s">
+        <v>435</v>
+      </c>
+      <c r="Y159" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="160" spans="1:25">
       <c r="A160" s="2">
         <v>0.66666666666666663</v>
       </c>
@@ -3723,8 +5973,17 @@
       <c r="M160" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="161" spans="1:13">
+      <c r="S160" t="s">
+        <v>9</v>
+      </c>
+      <c r="V160" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y160" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="161" spans="1:25">
       <c r="G161" t="s">
         <v>12</v>
       </c>
@@ -3734,8 +5993,20 @@
       <c r="M161" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="162" spans="1:13">
+      <c r="P161" t="s">
+        <v>333</v>
+      </c>
+      <c r="S161" t="s">
+        <v>30</v>
+      </c>
+      <c r="V161" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y161" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="162" spans="1:25">
       <c r="A162" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +6022,20 @@
       <c r="M162" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="163" spans="1:13">
+      <c r="P162" t="s">
+        <v>47</v>
+      </c>
+      <c r="S162" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="V162" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y162" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163" spans="1:25">
       <c r="A163" t="s">
         <v>67</v>
       </c>
@@ -3765,8 +6048,17 @@
       <c r="J163" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="164" spans="1:13">
+      <c r="P163" t="s">
+        <v>29</v>
+      </c>
+      <c r="V163" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y163" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164" spans="1:25">
       <c r="A164" t="s">
         <v>38</v>
       </c>
@@ -3779,8 +6071,14 @@
       <c r="M164" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="165" spans="1:13">
+      <c r="P164" t="s">
+        <v>9</v>
+      </c>
+      <c r="S164" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="165" spans="1:25">
       <c r="A165" t="s">
         <v>9</v>
       </c>
@@ -3796,8 +6094,20 @@
       <c r="M165" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="166" spans="1:13">
+      <c r="P165" t="s">
+        <v>10</v>
+      </c>
+      <c r="S165" t="s">
+        <v>76</v>
+      </c>
+      <c r="V165" t="s">
+        <v>436</v>
+      </c>
+      <c r="Y165" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="166" spans="1:25">
       <c r="A166" t="s">
         <v>41</v>
       </c>
@@ -3810,8 +6120,17 @@
       <c r="M166" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="167" spans="1:13">
+      <c r="S166" t="s">
+        <v>38</v>
+      </c>
+      <c r="V166" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y166" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="167" spans="1:25">
       <c r="A167" s="2">
         <v>0.66666666666666663</v>
       </c>
@@ -3827,8 +6146,20 @@
       <c r="M167" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="168" spans="1:13">
+      <c r="P167" t="s">
+        <v>334</v>
+      </c>
+      <c r="S167" t="s">
+        <v>9</v>
+      </c>
+      <c r="V167" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y167" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="168" spans="1:25">
       <c r="G168" t="s">
         <v>26</v>
       </c>
@@ -3838,8 +6169,20 @@
       <c r="M168" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="169" spans="1:13">
+      <c r="P168" t="s">
+        <v>84</v>
+      </c>
+      <c r="S168" t="s">
+        <v>10</v>
+      </c>
+      <c r="V168" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y168" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="169" spans="1:25">
       <c r="A169" t="s">
         <v>68</v>
       </c>
@@ -3855,8 +6198,17 @@
       <c r="M169" s="2">
         <v>0.625</v>
       </c>
-    </row>
-    <row r="170" spans="1:13">
+      <c r="P169" t="s">
+        <v>35</v>
+      </c>
+      <c r="V169" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y169" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="170" spans="1:25">
       <c r="A170" t="s">
         <v>16</v>
       </c>
@@ -3866,8 +6218,20 @@
       <c r="G170" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="171" spans="1:13">
+      <c r="P170" t="s">
+        <v>9</v>
+      </c>
+      <c r="S170" t="s">
+        <v>385</v>
+      </c>
+      <c r="V170" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="Y170" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+    </row>
+    <row r="171" spans="1:25">
       <c r="A171" t="s">
         <v>49</v>
       </c>
@@ -3883,8 +6247,14 @@
       <c r="M171" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="172" spans="1:13">
+      <c r="P171" t="s">
+        <v>134</v>
+      </c>
+      <c r="S171" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="172" spans="1:25">
       <c r="A172" t="s">
         <v>50</v>
       </c>
@@ -3900,8 +6270,20 @@
       <c r="M172" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="173" spans="1:13">
+      <c r="P172" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="S172" t="s">
+        <v>38</v>
+      </c>
+      <c r="V172" t="s">
+        <v>437</v>
+      </c>
+      <c r="Y172" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="173" spans="1:25">
       <c r="A173" t="s">
         <v>9</v>
       </c>
@@ -3914,8 +6296,17 @@
       <c r="M173" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="174" spans="1:13">
+      <c r="S173" t="s">
+        <v>9</v>
+      </c>
+      <c r="V173" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y173" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="174" spans="1:25">
       <c r="A174" t="s">
         <v>10</v>
       </c>
@@ -3931,8 +6322,20 @@
       <c r="M174" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="175" spans="1:13">
+      <c r="P174" t="s">
+        <v>335</v>
+      </c>
+      <c r="S174" t="s">
+        <v>10</v>
+      </c>
+      <c r="V174" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y174" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="175" spans="1:25">
       <c r="G175" t="s">
         <v>20</v>
       </c>
@@ -3942,8 +6345,17 @@
       <c r="M175" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="176" spans="1:13">
+      <c r="P175" t="s">
+        <v>28</v>
+      </c>
+      <c r="V175" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y175" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="176" spans="1:25">
       <c r="A176" t="s">
         <v>69</v>
       </c>
@@ -3953,8 +6365,20 @@
       <c r="G176" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="177" spans="1:13">
+      <c r="P176" t="s">
+        <v>35</v>
+      </c>
+      <c r="S176" t="s">
+        <v>386</v>
+      </c>
+      <c r="V176" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y176" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="177" spans="1:25">
       <c r="A177" t="s">
         <v>21</v>
       </c>
@@ -3970,8 +6394,17 @@
       <c r="M177" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="178" spans="1:13">
+      <c r="P177" t="s">
+        <v>9</v>
+      </c>
+      <c r="S177" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y177" s="2">
+        <v>0.77083333333333337</v>
+      </c>
+    </row>
+    <row r="178" spans="1:25">
       <c r="A178" t="s">
         <v>22</v>
       </c>
@@ -3987,8 +6420,17 @@
       <c r="M178" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="179" spans="1:13">
+      <c r="P178" t="s">
+        <v>30</v>
+      </c>
+      <c r="S178" t="s">
+        <v>50</v>
+      </c>
+      <c r="V178" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="179" spans="1:25">
       <c r="A179" t="s">
         <v>9</v>
       </c>
@@ -4004,8 +6446,20 @@
       <c r="M179" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="180" spans="1:13">
+      <c r="P179" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="S179" t="s">
+        <v>9</v>
+      </c>
+      <c r="V179" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y179" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="180" spans="1:25">
       <c r="A180" t="s">
         <v>23</v>
       </c>
@@ -4021,8 +6475,17 @@
       <c r="M180" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="181" spans="1:13">
+      <c r="S180" t="s">
+        <v>84</v>
+      </c>
+      <c r="V180" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y180" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="181" spans="1:25">
       <c r="A181" s="2">
         <v>0.625</v>
       </c>
@@ -4032,8 +6495,20 @@
       <c r="M181" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="182" spans="1:13">
+      <c r="P181" t="s">
+        <v>336</v>
+      </c>
+      <c r="S181" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="V181" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y181" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="182" spans="1:25">
       <c r="D182" t="s">
         <v>133</v>
       </c>
@@ -4043,8 +6518,17 @@
       <c r="J182" s="2">
         <v>0.52083333333333337</v>
       </c>
-    </row>
-    <row r="183" spans="1:13">
+      <c r="P182" t="s">
+        <v>107</v>
+      </c>
+      <c r="V182" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y182" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="183" spans="1:25">
       <c r="A183" t="s">
         <v>70</v>
       </c>
@@ -4057,8 +6541,20 @@
       <c r="M183" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="184" spans="1:13">
+      <c r="P183" t="s">
+        <v>29</v>
+      </c>
+      <c r="S183" t="s">
+        <v>387</v>
+      </c>
+      <c r="V183" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y183" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="184" spans="1:25">
       <c r="A184" t="s">
         <v>62</v>
       </c>
@@ -4074,8 +6570,17 @@
       <c r="M184" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="185" spans="1:13">
+      <c r="P184" t="s">
+        <v>9</v>
+      </c>
+      <c r="S184" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y184" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+    </row>
+    <row r="185" spans="1:25">
       <c r="A185" t="s">
         <v>35</v>
       </c>
@@ -4091,8 +6596,17 @@
       <c r="M185" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="186" spans="1:13">
+      <c r="P185" t="s">
+        <v>10</v>
+      </c>
+      <c r="S185" t="s">
+        <v>38</v>
+      </c>
+      <c r="V185" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="186" spans="1:25">
       <c r="A186" t="s">
         <v>9</v>
       </c>
@@ -4108,8 +6622,17 @@
       <c r="M186" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="187" spans="1:13">
+      <c r="S186" t="s">
+        <v>9</v>
+      </c>
+      <c r="V186" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y186" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="187" spans="1:25">
       <c r="A187" t="s">
         <v>10</v>
       </c>
@@ -4122,8 +6645,20 @@
       <c r="M187" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="188" spans="1:13">
+      <c r="P187" t="s">
+        <v>337</v>
+      </c>
+      <c r="S187" t="s">
+        <v>21</v>
+      </c>
+      <c r="V187" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y187" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="188" spans="1:25">
       <c r="G188" t="s">
         <v>185</v>
       </c>
@@ -4133,8 +6668,20 @@
       <c r="M188" s="2">
         <v>0.625</v>
       </c>
-    </row>
-    <row r="189" spans="1:13">
+      <c r="P188" t="s">
+        <v>84</v>
+      </c>
+      <c r="S188" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="V188" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y188" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="189" spans="1:25">
       <c r="A189" t="s">
         <v>71</v>
       </c>
@@ -4144,8 +6691,17 @@
       <c r="G189" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="190" spans="1:13">
+      <c r="P189" t="s">
+        <v>38</v>
+      </c>
+      <c r="V189" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y189" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="190" spans="1:25">
       <c r="A190" t="s">
         <v>20</v>
       </c>
@@ -4161,8 +6717,20 @@
       <c r="M190" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="191" spans="1:13">
+      <c r="P190" t="s">
+        <v>9</v>
+      </c>
+      <c r="S190" t="s">
+        <v>388</v>
+      </c>
+      <c r="V190" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y190" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="191" spans="1:25">
       <c r="A191" t="s">
         <v>47</v>
       </c>
@@ -4178,8 +6746,14 @@
       <c r="M191" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="192" spans="1:13">
+      <c r="P191" t="s">
+        <v>134</v>
+      </c>
+      <c r="S191" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="192" spans="1:25">
       <c r="A192" t="s">
         <v>72</v>
       </c>
@@ -4195,8 +6769,20 @@
       <c r="M192" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="193" spans="1:13">
+      <c r="P192" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="S192" t="s">
+        <v>22</v>
+      </c>
+      <c r="V192" t="s">
+        <v>440</v>
+      </c>
+      <c r="Y192" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="193" spans="1:25">
       <c r="A193" t="s">
         <v>9</v>
       </c>
@@ -4209,8 +6795,17 @@
       <c r="M193" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="194" spans="1:13">
+      <c r="S193" t="s">
+        <v>9</v>
+      </c>
+      <c r="V193" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y193" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="194" spans="1:25">
       <c r="A194" t="s">
         <v>10</v>
       </c>
@@ -4223,8 +6818,20 @@
       <c r="M194" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="195" spans="1:13">
+      <c r="P194" t="s">
+        <v>338</v>
+      </c>
+      <c r="S194" t="s">
+        <v>42</v>
+      </c>
+      <c r="V194" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y194" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="195" spans="1:25">
       <c r="D195" t="s">
         <v>137</v>
       </c>
@@ -4234,8 +6841,20 @@
       <c r="J195" s="2">
         <v>0.625</v>
       </c>
-    </row>
-    <row r="196" spans="1:13">
+      <c r="P195" t="s">
+        <v>20</v>
+      </c>
+      <c r="S195" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="V195" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y195" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="196" spans="1:25">
       <c r="A196" t="s">
         <v>73</v>
       </c>
@@ -4248,8 +6867,17 @@
       <c r="M196" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="197" spans="1:13">
+      <c r="P196" t="s">
+        <v>87</v>
+      </c>
+      <c r="V196" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y196" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="197" spans="1:25">
       <c r="A197" t="s">
         <v>64</v>
       </c>
@@ -4265,8 +6893,14 @@
       <c r="M197" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="198" spans="1:13">
+      <c r="P197" t="s">
+        <v>29</v>
+      </c>
+      <c r="S197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="198" spans="1:25">
       <c r="A198" t="s">
         <v>22</v>
       </c>
@@ -4282,8 +6916,20 @@
       <c r="M198" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="199" spans="1:13">
+      <c r="P198" t="s">
+        <v>9</v>
+      </c>
+      <c r="S198" t="s">
+        <v>390</v>
+      </c>
+      <c r="V198" t="s">
+        <v>441</v>
+      </c>
+      <c r="Y198" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="199" spans="1:25">
       <c r="A199" t="s">
         <v>9</v>
       </c>
@@ -4299,8 +6945,20 @@
       <c r="M199" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="200" spans="1:13">
+      <c r="P199" t="s">
+        <v>28</v>
+      </c>
+      <c r="S199" t="s">
+        <v>87</v>
+      </c>
+      <c r="V199" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y199" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="200" spans="1:25">
       <c r="A200" t="s">
         <v>10</v>
       </c>
@@ -4310,8 +6968,20 @@
       <c r="M200" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="201" spans="1:13">
+      <c r="P200" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="S200" t="s">
+        <v>50</v>
+      </c>
+      <c r="V200" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y200" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="201" spans="1:25">
       <c r="D201" t="s">
         <v>138</v>
       </c>
@@ -4321,8 +6991,17 @@
       <c r="J201" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="202" spans="1:13">
+      <c r="S201" t="s">
+        <v>9</v>
+      </c>
+      <c r="V201" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y201" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="202" spans="1:25">
       <c r="A202" t="s">
         <v>74</v>
       </c>
@@ -4338,8 +7017,20 @@
       <c r="M202" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="203" spans="1:13">
+      <c r="P202" t="s">
+        <v>339</v>
+      </c>
+      <c r="S202" t="s">
+        <v>28</v>
+      </c>
+      <c r="V202" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y202" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="203" spans="1:25">
       <c r="A203" t="s">
         <v>45</v>
       </c>
@@ -4352,8 +7043,17 @@
       <c r="M203" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="204" spans="1:13">
+      <c r="P203" t="s">
+        <v>62</v>
+      </c>
+      <c r="S203" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="Y203" s="2">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="204" spans="1:25">
       <c r="A204" t="s">
         <v>50</v>
       </c>
@@ -4369,8 +7069,14 @@
       <c r="M204" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="205" spans="1:13">
+      <c r="P204" t="s">
+        <v>18</v>
+      </c>
+      <c r="V204" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="205" spans="1:25">
       <c r="A205" t="s">
         <v>9</v>
       </c>
@@ -4386,8 +7092,20 @@
       <c r="M205" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="206" spans="1:13">
+      <c r="P205" t="s">
+        <v>9</v>
+      </c>
+      <c r="S205" t="s">
+        <v>391</v>
+      </c>
+      <c r="V205" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y205" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="206" spans="1:25">
       <c r="A206" t="s">
         <v>37</v>
       </c>
@@ -4400,8 +7118,20 @@
       <c r="M206" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="207" spans="1:13">
+      <c r="P206" t="s">
+        <v>10</v>
+      </c>
+      <c r="S206" t="s">
+        <v>37</v>
+      </c>
+      <c r="V206" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y206" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="207" spans="1:25">
       <c r="A207" s="2">
         <v>0.77083333333333337</v>
       </c>
@@ -4414,8 +7144,17 @@
       <c r="M207" s="2">
         <v>0.77083333333333337</v>
       </c>
-    </row>
-    <row r="208" spans="1:13">
+      <c r="S207" t="s">
+        <v>38</v>
+      </c>
+      <c r="V207" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y207" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="208" spans="1:25">
       <c r="D208" t="s">
         <v>83</v>
       </c>
@@ -4425,8 +7164,20 @@
       <c r="J208" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="209" spans="1:13">
+      <c r="P208" t="s">
+        <v>340</v>
+      </c>
+      <c r="S208" t="s">
+        <v>9</v>
+      </c>
+      <c r="V208" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y208" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="209" spans="1:25">
       <c r="A209" t="s">
         <v>75</v>
       </c>
@@ -4439,8 +7190,20 @@
       <c r="M209" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="210" spans="1:13">
+      <c r="P209" t="s">
+        <v>64</v>
+      </c>
+      <c r="S209" t="s">
+        <v>39</v>
+      </c>
+      <c r="V209" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="Y209" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="210" spans="1:25">
       <c r="A210" t="s">
         <v>76</v>
       </c>
@@ -4456,8 +7219,17 @@
       <c r="M210" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="211" spans="1:13">
+      <c r="P210" t="s">
+        <v>35</v>
+      </c>
+      <c r="S210" s="2">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="Y210" s="2">
+        <v>0.77083333333333337</v>
+      </c>
+    </row>
+    <row r="211" spans="1:25">
       <c r="A211" t="s">
         <v>77</v>
       </c>
@@ -4473,8 +7245,14 @@
       <c r="M211" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="212" spans="1:13">
+      <c r="P211" t="s">
+        <v>9</v>
+      </c>
+      <c r="V211" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="212" spans="1:25">
       <c r="A212" t="s">
         <v>9</v>
       </c>
@@ -4490,8 +7268,20 @@
       <c r="M212" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="213" spans="1:13">
+      <c r="P212" t="s">
+        <v>10</v>
+      </c>
+      <c r="S212" t="s">
+        <v>392</v>
+      </c>
+      <c r="V212" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y212" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="213" spans="1:25">
       <c r="A213" t="s">
         <v>10</v>
       </c>
@@ -4504,8 +7294,17 @@
       <c r="M213" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="214" spans="1:13">
+      <c r="S213" t="s">
+        <v>54</v>
+      </c>
+      <c r="V213" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y213" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="214" spans="1:25">
       <c r="D214" t="s">
         <v>140</v>
       </c>
@@ -4515,8 +7314,20 @@
       <c r="M214" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="215" spans="1:13">
+      <c r="P214" t="s">
+        <v>341</v>
+      </c>
+      <c r="S214" t="s">
+        <v>29</v>
+      </c>
+      <c r="V214" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y214" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="215" spans="1:25">
       <c r="A215" t="s">
         <v>78</v>
       </c>
@@ -4529,8 +7340,20 @@
       <c r="J215" s="2">
         <v>0.70833333333333337</v>
       </c>
-    </row>
-    <row r="216" spans="1:13">
+      <c r="P215" t="s">
+        <v>56</v>
+      </c>
+      <c r="S215" t="s">
+        <v>9</v>
+      </c>
+      <c r="V215" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y215" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="216" spans="1:25">
       <c r="A216" t="s">
         <v>52</v>
       </c>
@@ -4543,8 +7366,20 @@
       <c r="M216" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="217" spans="1:13">
+      <c r="P216" t="s">
+        <v>35</v>
+      </c>
+      <c r="S216" t="s">
+        <v>10</v>
+      </c>
+      <c r="V216" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y216" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="217" spans="1:25">
       <c r="A217" t="s">
         <v>35</v>
       </c>
@@ -4560,8 +7395,14 @@
       <c r="M217" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="218" spans="1:13">
+      <c r="P217" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y217" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="218" spans="1:25">
       <c r="A218" t="s">
         <v>9</v>
       </c>
@@ -4577,8 +7418,20 @@
       <c r="M218" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="219" spans="1:13">
+      <c r="P218" t="s">
+        <v>10</v>
+      </c>
+      <c r="S218" t="s">
+        <v>393</v>
+      </c>
+      <c r="V218" t="s">
+        <v>444</v>
+      </c>
+      <c r="Y218" s="2">
+        <v>0.77083333333333337</v>
+      </c>
+    </row>
+    <row r="219" spans="1:25">
       <c r="A219" t="s">
         <v>10</v>
       </c>
@@ -4591,8 +7444,14 @@
       <c r="M219" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="220" spans="1:13">
+      <c r="S219" t="s">
+        <v>64</v>
+      </c>
+      <c r="V219" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="220" spans="1:25">
       <c r="D220" t="s">
         <v>141</v>
       </c>
@@ -4605,8 +7464,20 @@
       <c r="M220" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="221" spans="1:13">
+      <c r="P220" t="s">
+        <v>342</v>
+      </c>
+      <c r="S220" t="s">
+        <v>22</v>
+      </c>
+      <c r="V220" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y220" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="221" spans="1:25">
       <c r="A221" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +7487,20 @@
       <c r="J221" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="222" spans="1:13">
+      <c r="P221" t="s">
+        <v>56</v>
+      </c>
+      <c r="S221" t="s">
+        <v>9</v>
+      </c>
+      <c r="V221" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y221" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="222" spans="1:25">
       <c r="A222" t="s">
         <v>16</v>
       </c>
@@ -4630,8 +7513,20 @@
       <c r="M222" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="223" spans="1:13">
+      <c r="P222" t="s">
+        <v>50</v>
+      </c>
+      <c r="S222" t="s">
+        <v>10</v>
+      </c>
+      <c r="V222" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y222" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="223" spans="1:25">
       <c r="A223" t="s">
         <v>45</v>
       </c>
@@ -4647,8 +7542,17 @@
       <c r="M223" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="224" spans="1:13">
+      <c r="P223" t="s">
+        <v>9</v>
+      </c>
+      <c r="V223" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Y223" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="224" spans="1:25">
       <c r="A224" t="s">
         <v>29</v>
       </c>
@@ -4664,8 +7568,17 @@
       <c r="M224" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="225" spans="1:13">
+      <c r="P224" t="s">
+        <v>10</v>
+      </c>
+      <c r="S224" t="s">
+        <v>394</v>
+      </c>
+      <c r="Y224" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="225" spans="1:25">
       <c r="A225" t="s">
         <v>9</v>
       </c>
@@ -4681,8 +7594,17 @@
       <c r="M225" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="226" spans="1:13">
+      <c r="S225" t="s">
+        <v>20</v>
+      </c>
+      <c r="V225" t="s">
+        <v>445</v>
+      </c>
+      <c r="Y225" s="2">
+        <v>0.77083333333333337</v>
+      </c>
+    </row>
+    <row r="226" spans="1:25">
       <c r="A226" t="s">
         <v>37</v>
       </c>
@@ -4695,8 +7617,17 @@
       <c r="M226" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="227" spans="1:13">
+      <c r="P226" t="s">
+        <v>343</v>
+      </c>
+      <c r="S226" t="s">
+        <v>12</v>
+      </c>
+      <c r="V226" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="227" spans="1:25">
       <c r="A227" s="2">
         <v>0.77083333333333337</v>
       </c>
@@ -4706,8 +7637,20 @@
       <c r="J227" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="228" spans="1:13">
+      <c r="P227" t="s">
+        <v>7</v>
+      </c>
+      <c r="S227" t="s">
+        <v>35</v>
+      </c>
+      <c r="V227" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y227" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="228" spans="1:25">
       <c r="D228" t="s">
         <v>95</v>
       </c>
@@ -4720,8 +7663,20 @@
       <c r="M228" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="229" spans="1:13">
+      <c r="P228" t="s">
+        <v>35</v>
+      </c>
+      <c r="S228" t="s">
+        <v>9</v>
+      </c>
+      <c r="V228" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y228" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="229" spans="1:25">
       <c r="A229" t="s">
         <v>80</v>
       </c>
@@ -4734,8 +7689,20 @@
       <c r="M229" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="230" spans="1:13">
+      <c r="P229" t="s">
+        <v>9</v>
+      </c>
+      <c r="S229" t="s">
+        <v>14</v>
+      </c>
+      <c r="V229" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y229" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="230" spans="1:25">
       <c r="A230" t="s">
         <v>64</v>
       </c>
@@ -4751,8 +7718,17 @@
       <c r="M230" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="231" spans="1:13">
+      <c r="P230" t="s">
+        <v>10</v>
+      </c>
+      <c r="S230" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="Y230" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="231" spans="1:25">
       <c r="A231" t="s">
         <v>50</v>
       </c>
@@ -4768,8 +7744,14 @@
       <c r="M231" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="232" spans="1:13">
+      <c r="V231" t="s">
+        <v>446</v>
+      </c>
+      <c r="Y231" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="232" spans="1:25">
       <c r="A232" t="s">
         <v>9</v>
       </c>
@@ -4785,8 +7767,20 @@
       <c r="M232" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="233" spans="1:13">
+      <c r="P232" t="s">
+        <v>344</v>
+      </c>
+      <c r="S232" t="s">
+        <v>395</v>
+      </c>
+      <c r="V232" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y232" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="233" spans="1:25">
       <c r="A233" t="s">
         <v>10</v>
       </c>
@@ -4796,8 +7790,17 @@
       <c r="J233" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="234" spans="1:13">
+      <c r="P233" t="s">
+        <v>41</v>
+      </c>
+      <c r="S233" t="s">
+        <v>100</v>
+      </c>
+      <c r="V233" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="234" spans="1:25">
       <c r="D234" t="s">
         <v>143</v>
       </c>
@@ -4807,8 +7810,20 @@
       <c r="M234" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="235" spans="1:13">
+      <c r="P234" t="s">
+        <v>77</v>
+      </c>
+      <c r="S234" t="s">
+        <v>60</v>
+      </c>
+      <c r="V234" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y234" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="235" spans="1:25">
       <c r="A235" t="s">
         <v>81</v>
       </c>
@@ -4821,8 +7836,20 @@
       <c r="M235" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="236" spans="1:13">
+      <c r="P235" t="s">
+        <v>9</v>
+      </c>
+      <c r="S235" t="s">
+        <v>9</v>
+      </c>
+      <c r="V235" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y235" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="236" spans="1:25">
       <c r="A236" t="s">
         <v>62</v>
       </c>
@@ -4838,8 +7865,17 @@
       <c r="M236" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="237" spans="1:13">
+      <c r="P236" t="s">
+        <v>42</v>
+      </c>
+      <c r="S236" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y236" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="237" spans="1:25">
       <c r="A237" t="s">
         <v>8</v>
       </c>
@@ -4855,8 +7891,17 @@
       <c r="M237" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="238" spans="1:13">
+      <c r="P237" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="V237" t="s">
+        <v>447</v>
+      </c>
+      <c r="Y237" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="238" spans="1:25">
       <c r="A238" t="s">
         <v>9</v>
       </c>
@@ -4872,8 +7917,17 @@
       <c r="M238" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="239" spans="1:13">
+      <c r="S238" t="s">
+        <v>396</v>
+      </c>
+      <c r="V238" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y238" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="239" spans="1:25">
       <c r="A239" t="s">
         <v>10</v>
       </c>
@@ -4886,8 +7940,17 @@
       <c r="M239" s="2">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="240" spans="1:13">
+      <c r="P239" t="s">
+        <v>345</v>
+      </c>
+      <c r="S239" t="s">
+        <v>95</v>
+      </c>
+      <c r="V239" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="240" spans="1:25">
       <c r="D240" t="s">
         <v>144</v>
       </c>
@@ -4897,8 +7960,20 @@
       <c r="J240" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="241" spans="1:13">
+      <c r="P240" t="s">
+        <v>62</v>
+      </c>
+      <c r="S240" t="s">
+        <v>72</v>
+      </c>
+      <c r="V240" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y240" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="241" spans="1:25">
       <c r="A241" t="s">
         <v>82</v>
       </c>
@@ -4911,8 +7986,20 @@
       <c r="M241" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="242" spans="1:13">
+      <c r="P241" t="s">
+        <v>35</v>
+      </c>
+      <c r="S241" t="s">
+        <v>9</v>
+      </c>
+      <c r="V241" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y241" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="242" spans="1:25">
       <c r="A242" t="s">
         <v>83</v>
       </c>
@@ -4928,8 +8015,20 @@
       <c r="M242" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="243" spans="1:13">
+      <c r="P242" t="s">
+        <v>9</v>
+      </c>
+      <c r="S242" t="s">
+        <v>12</v>
+      </c>
+      <c r="V242" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="Y242" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="243" spans="1:25">
       <c r="A243" t="s">
         <v>8</v>
       </c>
@@ -4942,8 +8041,17 @@
       <c r="M243" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="244" spans="1:13">
+      <c r="P243" t="s">
+        <v>10</v>
+      </c>
+      <c r="S243" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="Y243" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="244" spans="1:25">
       <c r="A244" t="s">
         <v>9</v>
       </c>
@@ -4959,8 +8067,14 @@
       <c r="M244" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="245" spans="1:13">
+      <c r="V244" t="s">
+        <v>448</v>
+      </c>
+      <c r="Y244" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="245" spans="1:25">
       <c r="A245" t="s">
         <v>84</v>
       </c>
@@ -4973,8 +8087,17 @@
       <c r="M245" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="246" spans="1:13">
+      <c r="P245" t="s">
+        <v>346</v>
+      </c>
+      <c r="S245" t="s">
+        <v>397</v>
+      </c>
+      <c r="V245" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="246" spans="1:25">
       <c r="A246" s="2">
         <v>0.75</v>
       </c>
@@ -4990,8 +8113,20 @@
       <c r="M246" s="2">
         <v>0.70833333333333337</v>
       </c>
-    </row>
-    <row r="247" spans="1:13">
+      <c r="P246" t="s">
+        <v>54</v>
+      </c>
+      <c r="S246" t="s">
+        <v>32</v>
+      </c>
+      <c r="V246" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y246" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="247" spans="1:25">
       <c r="D247" t="s">
         <v>17</v>
       </c>
@@ -5001,8 +8136,20 @@
       <c r="J247" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="248" spans="1:13">
+      <c r="P247" t="s">
+        <v>50</v>
+      </c>
+      <c r="S247" t="s">
+        <v>50</v>
+      </c>
+      <c r="V247" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y247" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="248" spans="1:25">
       <c r="A248" t="s">
         <v>85</v>
       </c>
@@ -5015,8 +8162,20 @@
       <c r="M248" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="249" spans="1:13">
+      <c r="P248" t="s">
+        <v>9</v>
+      </c>
+      <c r="S248" t="s">
+        <v>9</v>
+      </c>
+      <c r="V248" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y248" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="249" spans="1:25">
       <c r="A249" t="s">
         <v>83</v>
       </c>
@@ -5032,8 +8191,20 @@
       <c r="M249" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="250" spans="1:13">
+      <c r="P249" t="s">
+        <v>10</v>
+      </c>
+      <c r="S249" t="s">
+        <v>10</v>
+      </c>
+      <c r="V249" s="2">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="Y249" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="250" spans="1:25">
       <c r="A250" t="s">
         <v>50</v>
       </c>
@@ -5046,8 +8217,11 @@
       <c r="M250" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="251" spans="1:13">
+      <c r="Y250" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="251" spans="1:25">
       <c r="A251" t="s">
         <v>9</v>
       </c>
@@ -5060,8 +8234,20 @@
       <c r="M251" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="252" spans="1:13">
+      <c r="P251" t="s">
+        <v>347</v>
+      </c>
+      <c r="S251" t="s">
+        <v>398</v>
+      </c>
+      <c r="V251" t="s">
+        <v>449</v>
+      </c>
+      <c r="Y251" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="252" spans="1:25">
       <c r="A252" t="s">
         <v>84</v>
       </c>
@@ -5077,8 +8263,17 @@
       <c r="M252" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="253" spans="1:13">
+      <c r="P252" t="s">
+        <v>54</v>
+      </c>
+      <c r="S252" t="s">
+        <v>100</v>
+      </c>
+      <c r="V252" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="253" spans="1:25">
       <c r="A253" s="2">
         <v>0.75</v>
       </c>
@@ -5091,8 +8286,20 @@
       <c r="J253" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="254" spans="1:13">
+      <c r="P253" t="s">
+        <v>29</v>
+      </c>
+      <c r="S253" t="s">
+        <v>38</v>
+      </c>
+      <c r="V253" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y253" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="254" spans="1:25">
       <c r="D254" t="s">
         <v>38</v>
       </c>
@@ -5105,8 +8312,20 @@
       <c r="M254" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="255" spans="1:13">
+      <c r="P254" t="s">
+        <v>9</v>
+      </c>
+      <c r="S254" t="s">
+        <v>9</v>
+      </c>
+      <c r="V254" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y254" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="255" spans="1:25">
       <c r="A255" t="s">
         <v>86</v>
       </c>
@@ -5119,8 +8338,20 @@
       <c r="M255" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="256" spans="1:13">
+      <c r="P255" t="s">
+        <v>10</v>
+      </c>
+      <c r="S255" t="s">
+        <v>10</v>
+      </c>
+      <c r="V255" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y255" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="256" spans="1:25">
       <c r="A256" t="s">
         <v>87</v>
       </c>
@@ -5133,8 +8364,14 @@
       <c r="M256" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="257" spans="1:13">
+      <c r="V256" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="Y256" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="257" spans="1:25">
       <c r="A257" t="s">
         <v>29</v>
       </c>
@@ -5147,8 +8384,17 @@
       <c r="M257" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="258" spans="1:13">
+      <c r="P257" t="s">
+        <v>348</v>
+      </c>
+      <c r="S257" t="s">
+        <v>399</v>
+      </c>
+      <c r="Y257" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="258" spans="1:25">
       <c r="A258" t="s">
         <v>9</v>
       </c>
@@ -5164,8 +8410,17 @@
       <c r="M258" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="259" spans="1:13">
+      <c r="P258" t="s">
+        <v>122</v>
+      </c>
+      <c r="S258" t="s">
+        <v>20</v>
+      </c>
+      <c r="V258" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="259" spans="1:25">
       <c r="A259" t="s">
         <v>28</v>
       </c>
@@ -5178,8 +8433,20 @@
       <c r="J259" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="260" spans="1:13">
+      <c r="P259" t="s">
+        <v>38</v>
+      </c>
+      <c r="S259" t="s">
+        <v>32</v>
+      </c>
+      <c r="V259" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y259" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="260" spans="1:25">
       <c r="A260" s="2">
         <v>0.52083333333333337</v>
       </c>
@@ -5195,8 +8462,20 @@
       <c r="M260" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="261" spans="1:13">
+      <c r="P260" t="s">
+        <v>9</v>
+      </c>
+      <c r="S260" t="s">
+        <v>22</v>
+      </c>
+      <c r="V260" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y260" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="261" spans="1:25">
       <c r="D261" t="s">
         <v>9</v>
       </c>
@@ -5209,8 +8488,20 @@
       <c r="M261" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="262" spans="1:13">
+      <c r="P261" t="s">
+        <v>21</v>
+      </c>
+      <c r="S261" t="s">
+        <v>9</v>
+      </c>
+      <c r="V261" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y261" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="262" spans="1:25">
       <c r="A262" t="s">
         <v>88</v>
       </c>
@@ -5220,8 +8511,20 @@
       <c r="M262" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="263" spans="1:13">
+      <c r="P262" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="S262" t="s">
+        <v>10</v>
+      </c>
+      <c r="V262" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y262" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="263" spans="1:25">
       <c r="A263" t="s">
         <v>20</v>
       </c>
@@ -5237,8 +8540,14 @@
       <c r="M263" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="264" spans="1:13">
+      <c r="V263" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Y263" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="264" spans="1:25">
       <c r="A264" t="s">
         <v>49</v>
       </c>
@@ -5251,8 +8560,14 @@
       <c r="M264" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="265" spans="1:13">
+      <c r="P264" t="s">
+        <v>349</v>
+      </c>
+      <c r="S264" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="265" spans="1:25">
       <c r="A265" t="s">
         <v>8</v>
       </c>
@@ -5268,8 +8583,20 @@
       <c r="M265" s="2">
         <v>0.70833333333333337</v>
       </c>
-    </row>
-    <row r="266" spans="1:13">
+      <c r="P265" t="s">
+        <v>56</v>
+      </c>
+      <c r="S265" t="s">
+        <v>56</v>
+      </c>
+      <c r="V265" t="s">
+        <v>451</v>
+      </c>
+      <c r="Y265" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="266" spans="1:25">
       <c r="A266" t="s">
         <v>9</v>
       </c>
@@ -5282,8 +8609,20 @@
       <c r="J266" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="267" spans="1:13">
+      <c r="P266" t="s">
+        <v>29</v>
+      </c>
+      <c r="S266" t="s">
+        <v>35</v>
+      </c>
+      <c r="V266" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y266" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="267" spans="1:25">
       <c r="A267" t="s">
         <v>10</v>
       </c>
@@ -5299,16 +8638,40 @@
       <c r="M267" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="268" spans="1:13">
+      <c r="P267" t="s">
+        <v>9</v>
+      </c>
+      <c r="S267" t="s">
+        <v>9</v>
+      </c>
+      <c r="V267" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y267" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="268" spans="1:25">
       <c r="D268" t="s">
         <v>9</v>
       </c>
       <c r="M268" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="269" spans="1:13">
+      <c r="P268" t="s">
+        <v>10</v>
+      </c>
+      <c r="S268" t="s">
+        <v>10</v>
+      </c>
+      <c r="V268" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y268" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="269" spans="1:25">
       <c r="A269" t="s">
         <v>89</v>
       </c>
@@ -5324,8 +8687,14 @@
       <c r="M269" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="270" spans="1:13">
+      <c r="V269" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y269" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="270" spans="1:25">
       <c r="A270" t="s">
         <v>67</v>
       </c>
@@ -5338,8 +8707,17 @@
       <c r="M270" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="271" spans="1:13">
+      <c r="P270" t="s">
+        <v>350</v>
+      </c>
+      <c r="S270" t="s">
+        <v>401</v>
+      </c>
+      <c r="V270" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="271" spans="1:25">
       <c r="A271" t="s">
         <v>35</v>
       </c>
@@ -5355,8 +8733,17 @@
       <c r="M271" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="272" spans="1:13">
+      <c r="P271" t="s">
+        <v>87</v>
+      </c>
+      <c r="S271" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y271" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="272" spans="1:25">
       <c r="A272" t="s">
         <v>9</v>
       </c>
@@ -5369,8 +8756,20 @@
       <c r="J272" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="273" spans="1:13">
+      <c r="P272" t="s">
+        <v>35</v>
+      </c>
+      <c r="S272" t="s">
+        <v>50</v>
+      </c>
+      <c r="V272" t="s">
+        <v>452</v>
+      </c>
+      <c r="Y272" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="273" spans="1:25">
       <c r="A273" t="s">
         <v>41</v>
       </c>
@@ -5386,8 +8785,20 @@
       <c r="M273" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="274" spans="1:13">
+      <c r="P273" t="s">
+        <v>9</v>
+      </c>
+      <c r="S273" t="s">
+        <v>9</v>
+      </c>
+      <c r="V273" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y273" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="274" spans="1:25">
       <c r="A274" s="2">
         <v>0.66666666666666663</v>
       </c>
@@ -5400,8 +8811,20 @@
       <c r="M274" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="275" spans="1:13">
+      <c r="P274" t="s">
+        <v>28</v>
+      </c>
+      <c r="S274" t="s">
+        <v>42</v>
+      </c>
+      <c r="V274" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y274" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="275" spans="1:25">
       <c r="D275" t="s">
         <v>10</v>
       </c>
@@ -5411,8 +8834,20 @@
       <c r="M275" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="276" spans="1:13">
+      <c r="P275" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="S275" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="V275" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y275" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="276" spans="1:25">
       <c r="A276" t="s">
         <v>90</v>
       </c>
@@ -5425,8 +8860,14 @@
       <c r="M276" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="277" spans="1:13">
+      <c r="V276" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y276" s="2">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="277" spans="1:25">
       <c r="A277" t="s">
         <v>52</v>
       </c>
@@ -5442,8 +8883,14 @@
       <c r="M277" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="278" spans="1:13">
+      <c r="P277" t="s">
+        <v>351</v>
+      </c>
+      <c r="S277" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="278" spans="1:25">
       <c r="A278" t="s">
         <v>38</v>
       </c>
@@ -5459,8 +8906,20 @@
       <c r="M278" s="2">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="279" spans="1:13">
+      <c r="P278" t="s">
+        <v>49</v>
+      </c>
+      <c r="S278" t="s">
+        <v>64</v>
+      </c>
+      <c r="V278" t="s">
+        <v>453</v>
+      </c>
+      <c r="Y278" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="279" spans="1:25">
       <c r="A279" t="s">
         <v>9</v>
       </c>
@@ -5473,8 +8932,20 @@
       <c r="J279" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="280" spans="1:13">
+      <c r="P279" t="s">
+        <v>29</v>
+      </c>
+      <c r="S279" t="s">
+        <v>50</v>
+      </c>
+      <c r="V279" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y279" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="280" spans="1:25">
       <c r="A280" t="s">
         <v>10</v>
       </c>
@@ -5490,8 +8961,20 @@
       <c r="M280" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="281" spans="1:13">
+      <c r="P280" t="s">
+        <v>9</v>
+      </c>
+      <c r="S280" t="s">
+        <v>9</v>
+      </c>
+      <c r="V280" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y280" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="281" spans="1:25">
       <c r="D281" t="s">
         <v>10</v>
       </c>
@@ -5501,8 +8984,20 @@
       <c r="M281" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="282" spans="1:13">
+      <c r="P281" t="s">
+        <v>10</v>
+      </c>
+      <c r="S281" t="s">
+        <v>10</v>
+      </c>
+      <c r="V281" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y281" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="282" spans="1:25">
       <c r="A282" t="s">
         <v>91</v>
       </c>
@@ -5512,8 +9007,14 @@
       <c r="M282" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="283" spans="1:13">
+      <c r="V282" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y282" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="283" spans="1:25">
       <c r="A283" t="s">
         <v>32</v>
       </c>
@@ -5529,8 +9030,17 @@
       <c r="M283" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="284" spans="1:13">
+      <c r="P283" t="s">
+        <v>352</v>
+      </c>
+      <c r="S283" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y283" s="2">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="284" spans="1:25">
       <c r="A284" t="s">
         <v>38</v>
       </c>
@@ -5546,8 +9056,17 @@
       <c r="M284" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="285" spans="1:13">
+      <c r="P284" t="s">
+        <v>21</v>
+      </c>
+      <c r="S284" t="s">
+        <v>21</v>
+      </c>
+      <c r="V284" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="285" spans="1:25">
       <c r="A285" t="s">
         <v>9</v>
       </c>
@@ -5563,8 +9082,20 @@
       <c r="M285" s="2">
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="286" spans="1:13">
+      <c r="P285" t="s">
+        <v>29</v>
+      </c>
+      <c r="S285" t="s">
+        <v>29</v>
+      </c>
+      <c r="V285" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y285" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="286" spans="1:25">
       <c r="A286" t="s">
         <v>10</v>
       </c>
@@ -5577,8 +9108,20 @@
       <c r="J286" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="287" spans="1:13">
+      <c r="P286" t="s">
+        <v>9</v>
+      </c>
+      <c r="S286" t="s">
+        <v>9</v>
+      </c>
+      <c r="V286" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y286" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="287" spans="1:25">
       <c r="D287" t="s">
         <v>10</v>
       </c>
@@ -5588,8 +9131,20 @@
       <c r="M287" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="288" spans="1:13">
+      <c r="P287" t="s">
+        <v>23</v>
+      </c>
+      <c r="S287" t="s">
+        <v>23</v>
+      </c>
+      <c r="V287" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y287" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="288" spans="1:25">
       <c r="A288" t="s">
         <v>92</v>
       </c>
@@ -5599,8 +9154,20 @@
       <c r="M288" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="289" spans="1:13">
+      <c r="P288" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="S288" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="V288" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y288" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="289" spans="1:25">
       <c r="A289" t="s">
         <v>93</v>
       </c>
@@ -5616,8 +9183,11 @@
       <c r="M289" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="290" spans="1:13">
+      <c r="Y289" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="290" spans="1:25">
       <c r="A290" t="s">
         <v>38</v>
       </c>
@@ -5633,8 +9203,17 @@
       <c r="M290" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="291" spans="1:13">
+      <c r="P290" t="s">
+        <v>353</v>
+      </c>
+      <c r="S290" t="s">
+        <v>404</v>
+      </c>
+      <c r="V290" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="291" spans="1:25">
       <c r="A291" t="s">
         <v>9</v>
       </c>
@@ -5650,8 +9229,20 @@
       <c r="M291" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="292" spans="1:13">
+      <c r="P291" t="s">
+        <v>54</v>
+      </c>
+      <c r="S291" t="s">
+        <v>122</v>
+      </c>
+      <c r="V291" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y291" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="292" spans="1:25">
       <c r="A292" t="s">
         <v>10</v>
       </c>
@@ -5664,8 +9255,20 @@
       <c r="J292" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="293" spans="1:13">
+      <c r="P292" t="s">
+        <v>50</v>
+      </c>
+      <c r="S292" t="s">
+        <v>35</v>
+      </c>
+      <c r="V292" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y292" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="293" spans="1:25">
       <c r="D293" t="s">
         <v>21</v>
       </c>
@@ -5675,8 +9278,20 @@
       <c r="M293" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="294" spans="1:13">
+      <c r="P293" t="s">
+        <v>9</v>
+      </c>
+      <c r="S293" t="s">
+        <v>9</v>
+      </c>
+      <c r="V293" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y293" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="294" spans="1:25">
       <c r="A294" t="s">
         <v>94</v>
       </c>
@@ -5689,8 +9304,20 @@
       <c r="M294" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="295" spans="1:13">
+      <c r="P294" t="s">
+        <v>10</v>
+      </c>
+      <c r="S294" t="s">
+        <v>21</v>
+      </c>
+      <c r="V294" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y294" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="295" spans="1:25">
       <c r="A295" t="s">
         <v>20</v>
       </c>
@@ -5703,8 +9330,17 @@
       <c r="M295" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="296" spans="1:13">
+      <c r="S295" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="V295" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y295" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="296" spans="1:25">
       <c r="A296" t="s">
         <v>95</v>
       </c>
@@ -5720,8 +9356,14 @@
       <c r="M296" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="297" spans="1:13">
+      <c r="P296" t="s">
+        <v>354</v>
+      </c>
+      <c r="V296" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+    </row>
+    <row r="297" spans="1:25">
       <c r="A297" t="s">
         <v>96</v>
       </c>
@@ -5737,8 +9379,17 @@
       <c r="M297" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="298" spans="1:13">
+      <c r="P297" t="s">
+        <v>62</v>
+      </c>
+      <c r="S297" t="s">
+        <v>405</v>
+      </c>
+      <c r="Y297" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="298" spans="1:25">
       <c r="A298" t="s">
         <v>9</v>
       </c>
@@ -5751,8 +9402,20 @@
       <c r="J298" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="299" spans="1:13">
+      <c r="P298" t="s">
+        <v>50</v>
+      </c>
+      <c r="S298" t="s">
+        <v>49</v>
+      </c>
+      <c r="V298" t="s">
+        <v>456</v>
+      </c>
+      <c r="Y298" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="299" spans="1:25">
       <c r="A299" t="s">
         <v>12</v>
       </c>
@@ -5765,8 +9428,20 @@
       <c r="M299" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="300" spans="1:13">
+      <c r="P299" t="s">
+        <v>9</v>
+      </c>
+      <c r="S299" t="s">
+        <v>29</v>
+      </c>
+      <c r="V299" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y299" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="300" spans="1:25">
       <c r="A300" s="2">
         <v>0.625</v>
       </c>
@@ -5782,8 +9457,20 @@
       <c r="M300" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="301" spans="1:13">
+      <c r="P300" t="s">
+        <v>10</v>
+      </c>
+      <c r="S300" t="s">
+        <v>9</v>
+      </c>
+      <c r="V300" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y300" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="301" spans="1:25">
       <c r="D301" s="2">
         <v>0.625</v>
       </c>
@@ -5793,8 +9480,17 @@
       <c r="M301" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="302" spans="1:13">
+      <c r="S301" t="s">
+        <v>10</v>
+      </c>
+      <c r="V301" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y301" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="302" spans="1:25">
       <c r="A302" t="s">
         <v>97</v>
       </c>
@@ -5807,8 +9503,14 @@
       <c r="M302" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="303" spans="1:13">
+      <c r="P302" t="s">
+        <v>355</v>
+      </c>
+      <c r="V302" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="303" spans="1:25">
       <c r="A303" t="s">
         <v>49</v>
       </c>
@@ -5824,8 +9526,17 @@
       <c r="M303" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="304" spans="1:13">
+      <c r="P303" t="s">
+        <v>122</v>
+      </c>
+      <c r="S303" t="s">
+        <v>406</v>
+      </c>
+      <c r="Y303" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="304" spans="1:25">
       <c r="A304" t="s">
         <v>38</v>
       </c>
@@ -5838,8 +9549,20 @@
       <c r="J304" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="305" spans="1:13">
+      <c r="P304" t="s">
+        <v>22</v>
+      </c>
+      <c r="S304" t="s">
+        <v>32</v>
+      </c>
+      <c r="V304" t="s">
+        <v>457</v>
+      </c>
+      <c r="Y304" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="305" spans="1:25">
       <c r="A305" t="s">
         <v>9</v>
       </c>
@@ -5855,8 +9578,20 @@
       <c r="M305" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="306" spans="1:13">
+      <c r="P305" t="s">
+        <v>9</v>
+      </c>
+      <c r="S305" t="s">
+        <v>35</v>
+      </c>
+      <c r="V305" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y305" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="306" spans="1:25">
       <c r="A306" t="s">
         <v>10</v>
       </c>
@@ -5872,16 +9607,40 @@
       <c r="M306" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="307" spans="1:13">
+      <c r="P306" t="s">
+        <v>21</v>
+      </c>
+      <c r="S306" t="s">
+        <v>9</v>
+      </c>
+      <c r="V306" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y306" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="307" spans="1:25">
       <c r="D307" t="s">
         <v>14</v>
       </c>
       <c r="M307" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="308" spans="1:13">
+      <c r="P307" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="S307" t="s">
+        <v>10</v>
+      </c>
+      <c r="V307" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y307" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="308" spans="1:25">
       <c r="A308" t="s">
         <v>98</v>
       </c>
@@ -5897,8 +9656,14 @@
       <c r="M308" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="309" spans="1:13">
+      <c r="V308" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y308" s="2">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="309" spans="1:25">
       <c r="A309" t="s">
         <v>56</v>
       </c>
@@ -5911,8 +9676,14 @@
       <c r="M309" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="310" spans="1:13">
+      <c r="P309" t="s">
+        <v>356</v>
+      </c>
+      <c r="S309" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="310" spans="1:25">
       <c r="A310" t="s">
         <v>35</v>
       </c>
@@ -5928,8 +9699,20 @@
       <c r="M310" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="311" spans="1:13">
+      <c r="P310" t="s">
+        <v>12</v>
+      </c>
+      <c r="S310" t="s">
+        <v>21</v>
+      </c>
+      <c r="V310" t="s">
+        <v>458</v>
+      </c>
+      <c r="Y310" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="311" spans="1:25">
       <c r="A311" t="s">
         <v>9</v>
       </c>
@@ -5945,8 +9728,20 @@
       <c r="M311" s="2">
         <v>0.625</v>
       </c>
-    </row>
-    <row r="312" spans="1:13">
+      <c r="P311" t="s">
+        <v>22</v>
+      </c>
+      <c r="S311" t="s">
+        <v>50</v>
+      </c>
+      <c r="V311" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y311" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="312" spans="1:25">
       <c r="A312" t="s">
         <v>10</v>
       </c>
@@ -5959,16 +9754,40 @@
       <c r="J312" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="313" spans="1:13">
+      <c r="P312" t="s">
+        <v>9</v>
+      </c>
+      <c r="S312" t="s">
+        <v>9</v>
+      </c>
+      <c r="V312" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y312" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="313" spans="1:25">
       <c r="D313" t="s">
         <v>9</v>
       </c>
       <c r="M313" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="314" spans="1:13">
+      <c r="P313" t="s">
+        <v>14</v>
+      </c>
+      <c r="S313" t="s">
+        <v>23</v>
+      </c>
+      <c r="V313" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y313" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="314" spans="1:25">
       <c r="A314" t="s">
         <v>99</v>
       </c>
@@ -5984,8 +9803,20 @@
       <c r="M314" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="315" spans="1:13">
+      <c r="P314" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="S314" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="V314" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y314" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="315" spans="1:25">
       <c r="A315" t="s">
         <v>100</v>
       </c>
@@ -5998,8 +9829,11 @@
       <c r="M315" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="316" spans="1:13">
+      <c r="Y315" s="2">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="316" spans="1:25">
       <c r="A316" t="s">
         <v>35</v>
       </c>
@@ -6015,8 +9849,17 @@
       <c r="M316" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="317" spans="1:13">
+      <c r="P316" t="s">
+        <v>357</v>
+      </c>
+      <c r="S316" t="s">
+        <v>408</v>
+      </c>
+      <c r="V316" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="317" spans="1:25">
       <c r="A317" t="s">
         <v>9</v>
       </c>
@@ -6032,8 +9875,20 @@
       <c r="M317" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="318" spans="1:13">
+      <c r="P317" t="s">
+        <v>122</v>
+      </c>
+      <c r="S317" t="s">
+        <v>122</v>
+      </c>
+      <c r="V317" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y317" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="318" spans="1:25">
       <c r="A318" t="s">
         <v>10</v>
       </c>
@@ -6049,8 +9904,20 @@
       <c r="M318" s="2">
         <v>0.625</v>
       </c>
-    </row>
-    <row r="319" spans="1:13">
+      <c r="P318" t="s">
+        <v>29</v>
+      </c>
+      <c r="S318" t="s">
+        <v>38</v>
+      </c>
+      <c r="V318" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y318" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="319" spans="1:25">
       <c r="D319" t="s">
         <v>9</v>
       </c>
@@ -6060,8 +9927,20 @@
       <c r="J319" s="2">
         <v>0.625</v>
       </c>
-    </row>
-    <row r="320" spans="1:13">
+      <c r="P319" t="s">
+        <v>9</v>
+      </c>
+      <c r="S319" t="s">
+        <v>9</v>
+      </c>
+      <c r="V319" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y319" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="320" spans="1:25">
       <c r="A320" t="s">
         <v>101</v>
       </c>
@@ -6071,8 +9950,20 @@
       <c r="M320" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="321" spans="1:13">
+      <c r="P320" t="s">
+        <v>21</v>
+      </c>
+      <c r="S320" t="s">
+        <v>21</v>
+      </c>
+      <c r="V320" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y320" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="321" spans="1:25">
       <c r="A321" t="s">
         <v>49</v>
       </c>
@@ -6085,8 +9976,20 @@
       <c r="M321" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="322" spans="1:13">
+      <c r="P321" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="S321" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="V321" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="Y321" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="322" spans="1:25">
       <c r="A322" t="s">
         <v>22</v>
       </c>
@@ -6103,7 +10006,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="323" spans="1:13">
+    <row r="323" spans="1:25">
       <c r="A323" t="s">
         <v>9</v>
       </c>
@@ -6119,8 +10022,20 @@
       <c r="M323" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="324" spans="1:13">
+      <c r="P323" t="s">
+        <v>358</v>
+      </c>
+      <c r="S323" t="s">
+        <v>409</v>
+      </c>
+      <c r="V323" t="s">
+        <v>460</v>
+      </c>
+      <c r="Y323" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="324" spans="1:25">
       <c r="A324" t="s">
         <v>10</v>
       </c>
@@ -6136,8 +10051,20 @@
       <c r="M324" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="325" spans="1:13">
+      <c r="P324" t="s">
+        <v>54</v>
+      </c>
+      <c r="S324" t="s">
+        <v>87</v>
+      </c>
+      <c r="V324" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y324" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="325" spans="1:25">
       <c r="D325" t="s">
         <v>9</v>
       </c>
@@ -6150,8 +10077,20 @@
       <c r="M325" s="2">
         <v>0.625</v>
       </c>
-    </row>
-    <row r="326" spans="1:13">
+      <c r="P325" t="s">
+        <v>38</v>
+      </c>
+      <c r="S325" t="s">
+        <v>50</v>
+      </c>
+      <c r="V325" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y325" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="326" spans="1:25">
       <c r="A326" t="s">
         <v>102</v>
       </c>
@@ -6161,8 +10100,20 @@
       <c r="G326" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="327" spans="1:13">
+      <c r="P326" t="s">
+        <v>9</v>
+      </c>
+      <c r="S326" t="s">
+        <v>9</v>
+      </c>
+      <c r="V326" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y326" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="327" spans="1:25">
       <c r="A327" t="s">
         <v>25</v>
       </c>
@@ -6175,8 +10126,20 @@
       <c r="M327" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="328" spans="1:13">
+      <c r="P327" t="s">
+        <v>10</v>
+      </c>
+      <c r="S327" t="s">
+        <v>28</v>
+      </c>
+      <c r="V327" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y327" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="328" spans="1:25">
       <c r="A328" t="s">
         <v>35</v>
       </c>
@@ -6189,8 +10152,11 @@
       <c r="M328" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="329" spans="1:13">
+      <c r="S328" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+    </row>
+    <row r="329" spans="1:25">
       <c r="A329" t="s">
         <v>9</v>
       </c>
@@ -6206,8 +10172,17 @@
       <c r="M329" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="330" spans="1:13">
+      <c r="P329" t="s">
+        <v>359</v>
+      </c>
+      <c r="V329" t="s">
+        <v>461</v>
+      </c>
+      <c r="Y329" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="330" spans="1:25">
       <c r="A330" t="s">
         <v>26</v>
       </c>
@@ -6223,8 +10198,20 @@
       <c r="M330" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="331" spans="1:13">
+      <c r="P330" t="s">
+        <v>54</v>
+      </c>
+      <c r="S330" t="s">
+        <v>410</v>
+      </c>
+      <c r="V330" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y330" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="331" spans="1:25">
       <c r="A331" s="2">
         <v>0.70833333333333337</v>
       </c>
@@ -6240,16 +10227,40 @@
       <c r="M331" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="332" spans="1:13">
+      <c r="P331" t="s">
+        <v>29</v>
+      </c>
+      <c r="S331" t="s">
+        <v>37</v>
+      </c>
+      <c r="V331" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y331" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="332" spans="1:25">
       <c r="D332" t="s">
         <v>9</v>
       </c>
       <c r="G332" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="333" spans="1:13">
+      <c r="P332" t="s">
+        <v>9</v>
+      </c>
+      <c r="S332" t="s">
+        <v>29</v>
+      </c>
+      <c r="V332" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y332" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="333" spans="1:25">
       <c r="A333" t="s">
         <v>103</v>
       </c>
@@ -6259,21 +10270,39 @@
       <c r="G333" s="2">
         <v>0.70833333333333337</v>
       </c>
-    </row>
-    <row r="334" spans="1:13">
+      <c r="P333" t="s">
+        <v>10</v>
+      </c>
+      <c r="S333" t="s">
+        <v>9</v>
+      </c>
+      <c r="V333" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y333" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="334" spans="1:25">
       <c r="A334" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="335" spans="1:13">
+      <c r="S334" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="335" spans="1:25">
       <c r="A335" t="s">
         <v>50</v>
       </c>
       <c r="G335" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="336" spans="1:13">
+      <c r="S335" s="2">
+        <v>0.77083333333333337</v>
+      </c>
+    </row>
+    <row r="336" spans="1:25">
       <c r="A336" t="s">
         <v>9</v>
       </c>
